--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231927.9230853088</v>
+        <v>-234590.346740294</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9497147.412392406</v>
+        <v>9497147.412392402</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.493767341</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.26809192273228</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,55 +1230,55 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>12.73205987707308</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="X9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>10.75721046822444</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>410.9410321169296</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8054867063952</v>
       </c>
       <c r="I11" t="n">
         <v>42.32124220608898</v>
@@ -1421,19 +1421,19 @@
         <v>109.6277078246379</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.0024841834868</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9967164759801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>72.43209840947557</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>79.73095469761404</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>65.76532546280791</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0344684738949</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.8320120974078</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.61285668964589</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>89.32154742214206</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.9199492577997</v>
       </c>
       <c r="T13" t="n">
         <v>219.5859520124176</v>
       </c>
       <c r="U13" t="n">
-        <v>213.6939407830965</v>
+        <v>286.2123105809692</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378.4919228242852</v>
+        <v>378.4919228242851</v>
       </c>
       <c r="C14" t="n">
-        <v>361.0309729318122</v>
+        <v>44.91647640784039</v>
       </c>
       <c r="D14" t="n">
-        <v>350.4411227814876</v>
+        <v>350.4411227814875</v>
       </c>
       <c r="E14" t="n">
-        <v>377.6884512330664</v>
+        <v>377.6884512330663</v>
       </c>
       <c r="F14" t="n">
-        <v>172.3496657065774</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>406.6991132777342</v>
+        <v>406.6991132777341</v>
       </c>
       <c r="H14" t="n">
-        <v>290.5635678671999</v>
+        <v>290.5635678671998</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.0793233668935</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>105.3857889854424</v>
       </c>
       <c r="T14" t="n">
-        <v>199.7605653442915</v>
+        <v>199.7605653442914</v>
       </c>
       <c r="U14" t="n">
-        <v>246.7547976367847</v>
+        <v>246.7547976367846</v>
       </c>
       <c r="V14" t="n">
-        <v>323.5103396309395</v>
+        <v>323.5103396309394</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>344.9990498782175</v>
       </c>
       <c r="X14" t="n">
-        <v>365.4891818392737</v>
+        <v>365.4891818392736</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.9960198168582</v>
+        <v>381.9960198168581</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.5900613427419</v>
+        <v>175.5900613427418</v>
       </c>
       <c r="C16" t="n">
-        <v>163.0049022594325</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>161.7925496346995</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.5900932582125</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>92.37093785045053</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.07962858294668</v>
+        <v>85.07962858294658</v>
       </c>
       <c r="S16" t="n">
-        <v>185.6780304186043</v>
+        <v>185.6780304186042</v>
       </c>
       <c r="T16" t="n">
-        <v>215.3440331732222</v>
+        <v>215.3440331732221</v>
       </c>
       <c r="U16" t="n">
-        <v>281.9703917417739</v>
+        <v>281.9703917417738</v>
       </c>
       <c r="V16" t="n">
-        <v>144.1317075601249</v>
+        <v>247.8957244846325</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>282.2810794973955</v>
       </c>
       <c r="X16" t="n">
-        <v>221.4677365498418</v>
+        <v>221.4677365498417</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>171.7133865808929</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>334.5635326856632</v>
       </c>
       <c r="F17" t="n">
-        <v>359.5092083551129</v>
+        <v>282.5887679591621</v>
       </c>
       <c r="G17" t="n">
         <v>363.574194730331</v>
       </c>
       <c r="H17" t="n">
-        <v>170.5182089238408</v>
+        <v>247.4386493197967</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.26087043803935</v>
+        <v>62.26087043803932</v>
       </c>
       <c r="T17" t="n">
         <v>156.6356467968883</v>
@@ -2008,19 +2008,19 @@
         <v>101.2486356316138</v>
       </c>
       <c r="E19" t="n">
-        <v>99.06712525997064</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F19" t="n">
-        <v>98.05421063633271</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G19" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H19" t="n">
-        <v>97.46517471080932</v>
+        <v>97.46517471080931</v>
       </c>
       <c r="I19" t="n">
-        <v>49.24601930304736</v>
+        <v>49.24601930304735</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>41.95471003554351</v>
       </c>
       <c r="S19" t="n">
-        <v>142.5531118712012</v>
+        <v>142.5531118712011</v>
       </c>
       <c r="T19" t="n">
         <v>172.219114625819</v>
@@ -2068,7 +2068,7 @@
         <v>178.3428180024386</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.2178159654953</v>
+        <v>171.2178159654962</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>317.906054384409</v>
       </c>
       <c r="D20" t="n">
-        <v>230.3957638381298</v>
+        <v>307.3162042340844</v>
       </c>
       <c r="E20" t="n">
         <v>334.5635326856632</v>
@@ -2096,7 +2096,7 @@
         <v>363.574194730331</v>
       </c>
       <c r="H20" t="n">
-        <v>247.4386493197967</v>
+        <v>170.5182089238465</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.26087043803935</v>
+        <v>62.26087043803932</v>
       </c>
       <c r="T20" t="n">
         <v>156.6356467968883</v>
@@ -2245,19 +2245,19 @@
         <v>101.2486356316138</v>
       </c>
       <c r="E22" t="n">
-        <v>99.06712525997064</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F22" t="n">
-        <v>98.05421063633271</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G22" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H22" t="n">
-        <v>97.46517471080932</v>
+        <v>97.46517471080931</v>
       </c>
       <c r="I22" t="n">
-        <v>49.24601930304736</v>
+        <v>49.24601930304735</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.26087043803935</v>
+        <v>62.26087043803932</v>
       </c>
       <c r="T23" t="n">
         <v>156.6356467968883</v>
@@ -2482,19 +2482,19 @@
         <v>101.2486356316138</v>
       </c>
       <c r="E25" t="n">
-        <v>99.06712525997064</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F25" t="n">
-        <v>98.05421063633271</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G25" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H25" t="n">
-        <v>97.46517471080932</v>
+        <v>97.46517471080888</v>
       </c>
       <c r="I25" t="n">
-        <v>49.24601930304736</v>
+        <v>49.24601930304735</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.26087043803935</v>
+        <v>62.26087043803932</v>
       </c>
       <c r="T26" t="n">
         <v>156.6356467968883</v>
@@ -2719,10 +2719,10 @@
         <v>101.2486356316138</v>
       </c>
       <c r="E28" t="n">
-        <v>99.06712525997064</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F28" t="n">
-        <v>98.05421063633271</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G28" t="n">
         <v>118.6676310872963</v>
@@ -2731,7 +2731,7 @@
         <v>97.46517471080843</v>
       </c>
       <c r="I28" t="n">
-        <v>49.24601930304736</v>
+        <v>49.24601930304735</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>339.6089231160774</v>
+        <v>339.6089231160775</v>
       </c>
       <c r="C29" t="n">
-        <v>322.1479732236044</v>
+        <v>322.1479732236045</v>
       </c>
       <c r="D29" t="n">
-        <v>311.5581230732798</v>
+        <v>311.5581230732799</v>
       </c>
       <c r="E29" t="n">
         <v>338.8054515248587</v>
       </c>
       <c r="F29" t="n">
-        <v>363.7511271943083</v>
+        <v>363.7511271943084</v>
       </c>
       <c r="G29" t="n">
         <v>367.8161135695265</v>
       </c>
       <c r="H29" t="n">
-        <v>251.6805681589921</v>
+        <v>251.6805681589922</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.50278927723474</v>
+        <v>66.5027892772348</v>
       </c>
       <c r="T29" t="n">
-        <v>160.8775656360837</v>
+        <v>160.8775656360838</v>
       </c>
       <c r="U29" t="n">
-        <v>207.8717979285769</v>
+        <v>207.871797928577</v>
       </c>
       <c r="V29" t="n">
         <v>284.6273399227318</v>
@@ -2855,7 +2855,7 @@
         <v>306.1160501700099</v>
       </c>
       <c r="X29" t="n">
-        <v>326.6061821310659</v>
+        <v>326.606182131066</v>
       </c>
       <c r="Y29" t="n">
         <v>343.1130201086505</v>
@@ -2950,25 +2950,25 @@
         <v>136.7070616345342</v>
       </c>
       <c r="C31" t="n">
-        <v>124.1219025512247</v>
+        <v>124.1219025512248</v>
       </c>
       <c r="D31" t="n">
-        <v>105.4905544708092</v>
+        <v>105.4905544708093</v>
       </c>
       <c r="E31" t="n">
-        <v>103.309044099166</v>
+        <v>103.3090440991661</v>
       </c>
       <c r="F31" t="n">
-        <v>102.2961294755281</v>
+        <v>102.2961294755282</v>
       </c>
       <c r="G31" t="n">
-        <v>122.9095499264917</v>
+        <v>122.9095499264918</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5763548885146719</v>
+        <v>0.5763548885129555</v>
       </c>
       <c r="I31" t="n">
-        <v>53.48793814224277</v>
+        <v>53.48793814224283</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.19662887473893</v>
+        <v>46.19662887473899</v>
       </c>
       <c r="S31" t="n">
         <v>146.7950307103966</v>
@@ -3004,7 +3004,7 @@
         <v>176.4610334650145</v>
       </c>
       <c r="U31" t="n">
-        <v>243.0873920335661</v>
+        <v>243.0873920335662</v>
       </c>
       <c r="V31" t="n">
         <v>209.0127247764249</v>
@@ -3013,7 +3013,7 @@
         <v>243.3980797891879</v>
       </c>
       <c r="X31" t="n">
-        <v>182.584736841634</v>
+        <v>182.5847368416341</v>
       </c>
       <c r="Y31" t="n">
         <v>175.4597348046917</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2608704380393</v>
+        <v>62.26087043803929</v>
       </c>
       <c r="T32" t="n">
         <v>156.6356467968883</v>
@@ -3123,10 +3123,10 @@
         <v>135.00979903435</v>
       </c>
       <c r="H33" t="n">
-        <v>89.69664020250063</v>
+        <v>89.69664020250062</v>
       </c>
       <c r="I33" t="n">
-        <v>9.047127098977612</v>
+        <v>9.047127098977597</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>101.2486356316138</v>
       </c>
       <c r="E34" t="n">
-        <v>99.0671252599706</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F34" t="n">
-        <v>98.05421063633267</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G34" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H34" t="n">
-        <v>97.46517471080926</v>
+        <v>97.46517471080929</v>
       </c>
       <c r="I34" t="n">
         <v>49.24601930304733</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95471003554349</v>
+        <v>41.9547100355435</v>
       </c>
       <c r="S34" t="n">
         <v>142.5531118712011</v>
@@ -3244,10 +3244,10 @@
         <v>238.8454731943707</v>
       </c>
       <c r="V34" t="n">
-        <v>204.7708059372294</v>
+        <v>204.7708059372295</v>
       </c>
       <c r="W34" t="n">
-        <v>239.1561609499924</v>
+        <v>239.1561609499925</v>
       </c>
       <c r="X34" t="n">
         <v>178.3428180024386</v>
@@ -3266,7 +3266,7 @@
         <v>335.367004276882</v>
       </c>
       <c r="C35" t="n">
-        <v>317.9060543844089</v>
+        <v>317.906054384409</v>
       </c>
       <c r="D35" t="n">
         <v>307.3162042340844</v>
@@ -3275,13 +3275,13 @@
         <v>334.5635326856632</v>
       </c>
       <c r="F35" t="n">
-        <v>359.5092083551128</v>
+        <v>359.5092083551129</v>
       </c>
       <c r="G35" t="n">
         <v>363.574194730331</v>
       </c>
       <c r="H35" t="n">
-        <v>247.4386493197966</v>
+        <v>247.4386493197967</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>62.26087043803929</v>
       </c>
       <c r="T35" t="n">
-        <v>156.6356467968882</v>
+        <v>156.6356467968883</v>
       </c>
       <c r="U35" t="n">
         <v>203.6298790893815</v>
       </c>
       <c r="V35" t="n">
-        <v>280.3854210835363</v>
+        <v>280.3854210835364</v>
       </c>
       <c r="W35" t="n">
-        <v>301.8741313308144</v>
+        <v>301.8741313308145</v>
       </c>
       <c r="X35" t="n">
-        <v>322.3642632918704</v>
+        <v>322.3642632918705</v>
       </c>
       <c r="Y35" t="n">
         <v>338.871101269455</v>
@@ -3424,25 +3424,25 @@
         <v>132.4651427953387</v>
       </c>
       <c r="C37" t="n">
-        <v>119.8799837120292</v>
+        <v>119.8799837120293</v>
       </c>
       <c r="D37" t="n">
         <v>101.2486356316138</v>
       </c>
       <c r="E37" t="n">
-        <v>99.06712525997058</v>
+        <v>99.06712525997061</v>
       </c>
       <c r="F37" t="n">
-        <v>98.05421063633266</v>
+        <v>98.05421063633268</v>
       </c>
       <c r="G37" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H37" t="n">
-        <v>97.46517471080926</v>
+        <v>97.46517471080929</v>
       </c>
       <c r="I37" t="n">
-        <v>49.24601930304731</v>
+        <v>49.24601930304733</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95471003554446</v>
+        <v>41.95471003554351</v>
       </c>
       <c r="S37" t="n">
         <v>142.5531118712011</v>
@@ -3478,16 +3478,16 @@
         <v>172.219114625819</v>
       </c>
       <c r="U37" t="n">
-        <v>238.8454731943706</v>
+        <v>238.8454731943707</v>
       </c>
       <c r="V37" t="n">
-        <v>204.7708059372294</v>
+        <v>204.7708059372295</v>
       </c>
       <c r="W37" t="n">
-        <v>239.1561609499924</v>
+        <v>239.1561609499925</v>
       </c>
       <c r="X37" t="n">
-        <v>178.3428180024385</v>
+        <v>178.3428180024386</v>
       </c>
       <c r="Y37" t="n">
         <v>171.2178159654962</v>
@@ -3503,7 +3503,7 @@
         <v>335.367004276882</v>
       </c>
       <c r="C38" t="n">
-        <v>317.9060543844089</v>
+        <v>317.906054384409</v>
       </c>
       <c r="D38" t="n">
         <v>307.3162042340844</v>
@@ -3512,13 +3512,13 @@
         <v>334.5635326856632</v>
       </c>
       <c r="F38" t="n">
-        <v>359.5092083551128</v>
+        <v>359.5092083551129</v>
       </c>
       <c r="G38" t="n">
         <v>363.574194730331</v>
       </c>
       <c r="H38" t="n">
-        <v>247.4386493197966</v>
+        <v>247.4386493197967</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.26087043803929</v>
+        <v>62.26087043803932</v>
       </c>
       <c r="T38" t="n">
-        <v>156.6356467968882</v>
+        <v>156.6356467968883</v>
       </c>
       <c r="U38" t="n">
         <v>203.6298790893815</v>
       </c>
       <c r="V38" t="n">
-        <v>280.3854210835363</v>
+        <v>280.3854210835364</v>
       </c>
       <c r="W38" t="n">
-        <v>301.8741313308144</v>
+        <v>301.8741313308145</v>
       </c>
       <c r="X38" t="n">
-        <v>322.3642632918704</v>
+        <v>322.3642632918705</v>
       </c>
       <c r="Y38" t="n">
         <v>338.871101269455</v>
@@ -3661,25 +3661,25 @@
         <v>132.4651427953387</v>
       </c>
       <c r="C40" t="n">
-        <v>119.8799837120292</v>
+        <v>119.8799837120293</v>
       </c>
       <c r="D40" t="n">
         <v>101.2486356316138</v>
       </c>
       <c r="E40" t="n">
-        <v>99.06712525997058</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F40" t="n">
-        <v>98.05421063633266</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G40" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H40" t="n">
-        <v>97.46517471080926</v>
+        <v>97.46517471080931</v>
       </c>
       <c r="I40" t="n">
-        <v>49.24601930304731</v>
+        <v>49.24601930304735</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95471003554346</v>
+        <v>41.95471003554351</v>
       </c>
       <c r="S40" t="n">
         <v>142.5531118712011</v>
@@ -3715,16 +3715,16 @@
         <v>172.219114625819</v>
       </c>
       <c r="U40" t="n">
-        <v>238.8454731943706</v>
+        <v>238.8454731943707</v>
       </c>
       <c r="V40" t="n">
-        <v>204.7708059372294</v>
+        <v>204.7708059372295</v>
       </c>
       <c r="W40" t="n">
-        <v>239.1561609499924</v>
+        <v>239.1561609499925</v>
       </c>
       <c r="X40" t="n">
-        <v>178.3428180024385</v>
+        <v>178.3428180024386</v>
       </c>
       <c r="Y40" t="n">
         <v>171.2178159654962</v>
@@ -3740,7 +3740,7 @@
         <v>335.367004276882</v>
       </c>
       <c r="C41" t="n">
-        <v>317.9060543844089</v>
+        <v>317.906054384409</v>
       </c>
       <c r="D41" t="n">
         <v>307.3162042340844</v>
@@ -3749,7 +3749,7 @@
         <v>334.5635326856632</v>
       </c>
       <c r="F41" t="n">
-        <v>359.5092083551128</v>
+        <v>359.5092083551129</v>
       </c>
       <c r="G41" t="n">
         <v>363.574194730331</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2608704380393</v>
+        <v>62.26087043803932</v>
       </c>
       <c r="T41" t="n">
         <v>156.6356467968883</v>
@@ -3797,13 +3797,13 @@
         <v>203.6298790893815</v>
       </c>
       <c r="V41" t="n">
-        <v>280.3854210835363</v>
+        <v>280.3854210835364</v>
       </c>
       <c r="W41" t="n">
-        <v>301.8741313308144</v>
+        <v>301.8741313308145</v>
       </c>
       <c r="X41" t="n">
-        <v>322.3642632918704</v>
+        <v>322.3642632918705</v>
       </c>
       <c r="Y41" t="n">
         <v>338.871101269455</v>
@@ -3837,7 +3837,7 @@
         <v>89.69664020250063</v>
       </c>
       <c r="I42" t="n">
-        <v>9.047127098977626</v>
+        <v>9.047127098977612</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>128.335380420835</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7582069385809</v>
+        <v>190.7582069385808</v>
       </c>
       <c r="U42" t="n">
         <v>225.7878479935498</v>
@@ -3898,25 +3898,25 @@
         <v>132.4651427953387</v>
       </c>
       <c r="C43" t="n">
-        <v>119.8799837120292</v>
+        <v>119.8799837120293</v>
       </c>
       <c r="D43" t="n">
         <v>101.2486356316138</v>
       </c>
       <c r="E43" t="n">
-        <v>99.06712525997058</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F43" t="n">
-        <v>98.05421063633266</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G43" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H43" t="n">
-        <v>97.46517471080926</v>
+        <v>97.46517471080931</v>
       </c>
       <c r="I43" t="n">
-        <v>49.24601930304731</v>
+        <v>49.24601930304735</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95471003554347</v>
+        <v>41.95471003554351</v>
       </c>
       <c r="S43" t="n">
         <v>142.5531118712011</v>
@@ -3952,16 +3952,16 @@
         <v>172.219114625819</v>
       </c>
       <c r="U43" t="n">
-        <v>238.8454731943706</v>
+        <v>238.8454731943707</v>
       </c>
       <c r="V43" t="n">
-        <v>204.7708059372294</v>
+        <v>204.7708059372295</v>
       </c>
       <c r="W43" t="n">
-        <v>239.1561609499924</v>
+        <v>239.1561609499925</v>
       </c>
       <c r="X43" t="n">
-        <v>178.3428180024385</v>
+        <v>178.3428180024386</v>
       </c>
       <c r="Y43" t="n">
         <v>171.2178159654962</v>
@@ -3977,7 +3977,7 @@
         <v>335.367004276882</v>
       </c>
       <c r="C44" t="n">
-        <v>317.9060543844089</v>
+        <v>317.906054384409</v>
       </c>
       <c r="D44" t="n">
         <v>307.3162042340844</v>
@@ -3986,7 +3986,7 @@
         <v>334.5635326856632</v>
       </c>
       <c r="F44" t="n">
-        <v>359.5092083551128</v>
+        <v>359.5092083551129</v>
       </c>
       <c r="G44" t="n">
         <v>363.574194730331</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2608704380393</v>
+        <v>62.26087043803932</v>
       </c>
       <c r="T44" t="n">
         <v>156.6356467968883</v>
@@ -4034,13 +4034,13 @@
         <v>203.6298790893815</v>
       </c>
       <c r="V44" t="n">
-        <v>280.3854210835363</v>
+        <v>280.3854210835364</v>
       </c>
       <c r="W44" t="n">
-        <v>301.8741313308144</v>
+        <v>301.8741313308145</v>
       </c>
       <c r="X44" t="n">
-        <v>322.3642632918704</v>
+        <v>322.3642632918705</v>
       </c>
       <c r="Y44" t="n">
         <v>338.871101269455</v>
@@ -4074,7 +4074,7 @@
         <v>89.69664020250063</v>
       </c>
       <c r="I45" t="n">
-        <v>9.047127098977626</v>
+        <v>9.047127098977612</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>128.335380420835</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7582069385809</v>
+        <v>190.7582069385808</v>
       </c>
       <c r="U45" t="n">
         <v>225.7878479935498</v>
@@ -4135,25 +4135,25 @@
         <v>132.4651427953387</v>
       </c>
       <c r="C46" t="n">
-        <v>119.8799837120292</v>
+        <v>119.8799837120293</v>
       </c>
       <c r="D46" t="n">
         <v>101.2486356316138</v>
       </c>
       <c r="E46" t="n">
-        <v>99.06712525997058</v>
+        <v>99.06712525997062</v>
       </c>
       <c r="F46" t="n">
-        <v>98.05421063633266</v>
+        <v>98.0542106363327</v>
       </c>
       <c r="G46" t="n">
         <v>118.6676310872963</v>
       </c>
       <c r="H46" t="n">
-        <v>97.46517471080926</v>
+        <v>97.46517471080931</v>
       </c>
       <c r="I46" t="n">
-        <v>49.24601930304731</v>
+        <v>49.24601930304735</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95471003554347</v>
+        <v>41.95471003554351</v>
       </c>
       <c r="S46" t="n">
         <v>142.5531118712011</v>
@@ -4189,16 +4189,16 @@
         <v>172.219114625819</v>
       </c>
       <c r="U46" t="n">
-        <v>238.8454731943706</v>
+        <v>238.8454731943707</v>
       </c>
       <c r="V46" t="n">
-        <v>204.7708059372294</v>
+        <v>204.7708059372295</v>
       </c>
       <c r="W46" t="n">
-        <v>239.1561609499924</v>
+        <v>239.1561609499925</v>
       </c>
       <c r="X46" t="n">
-        <v>178.3428180024385</v>
+        <v>178.3428180024386</v>
       </c>
       <c r="Y46" t="n">
         <v>171.2178159654962</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C8" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D8" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M8" t="n">
-        <v>15.7618196405891</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
         <v>46.0612399205565</v>
@@ -4823,31 +4823,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S8" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="T8" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="U8" t="n">
-        <v>35.69701961884617</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="V8" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W8" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X8" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.69701961884617</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.43566227534506</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C9" t="n">
-        <v>17.43566227534506</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4887,19 +4887,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N9" t="n">
-        <v>16.37392914119451</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O9" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
@@ -4917,16 +4917,16 @@
         <v>61.2109500605402</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W9" t="n">
-        <v>48.35028351804213</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X9" t="n">
-        <v>32.89297289669359</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4984,28 +4984,28 @@
         <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="S10" t="n">
-        <v>43.00470940373054</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="T10" t="n">
-        <v>32.13884024390788</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="U10" t="n">
-        <v>32.13884024390788</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="V10" t="n">
-        <v>32.13884024390788</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="W10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.898450526712</v>
+        <v>1190.627819227167</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.9359335863</v>
+        <v>821.6653022867554</v>
       </c>
       <c r="D11" t="n">
-        <v>909.6702349795498</v>
+        <v>821.6653022867554</v>
       </c>
       <c r="E11" t="n">
-        <v>523.8819823813055</v>
+        <v>821.6653022867554</v>
       </c>
       <c r="F11" t="n">
-        <v>523.8819823813055</v>
+        <v>821.6653022867554</v>
       </c>
       <c r="G11" t="n">
-        <v>108.7900307480433</v>
+        <v>406.5733506534932</v>
       </c>
       <c r="H11" t="n">
         <v>108.7900307480433</v>
@@ -5069,22 +5069,22 @@
         <v>3191.330003938443</v>
       </c>
       <c r="T11" t="n">
-        <v>3191.330003938443</v>
+        <v>2985.266888601588</v>
       </c>
       <c r="U11" t="n">
-        <v>3191.330003938443</v>
+        <v>2731.734851757163</v>
       </c>
       <c r="V11" t="n">
-        <v>2860.267116594872</v>
+        <v>2400.671964413592</v>
       </c>
       <c r="W11" t="n">
-        <v>2787.103380827725</v>
+        <v>2047.903309143478</v>
       </c>
       <c r="X11" t="n">
-        <v>2413.637622566645</v>
+        <v>1967.366991267101</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.498290590834</v>
+        <v>1577.227659291289</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>625.5496849919109</v>
+        <v>66.04130124694301</v>
       </c>
       <c r="C13" t="n">
-        <v>625.5496849919109</v>
+        <v>66.04130124694301</v>
       </c>
       <c r="D13" t="n">
-        <v>625.5496849919109</v>
+        <v>66.04130124694301</v>
       </c>
       <c r="E13" t="n">
-        <v>477.6365914095177</v>
+        <v>66.04130124694336</v>
       </c>
       <c r="F13" t="n">
-        <v>477.6365914095177</v>
+        <v>66.04130124694336</v>
       </c>
       <c r="G13" t="n">
-        <v>309.9250070924522</v>
+        <v>66.04130124694336</v>
       </c>
       <c r="H13" t="n">
-        <v>163.6300453778988</v>
+        <v>66.04130124694336</v>
       </c>
       <c r="I13" t="n">
         <v>66.04130124694336</v>
@@ -5221,28 +5221,28 @@
         <v>1918.324165022385</v>
       </c>
       <c r="R13" t="n">
-        <v>1828.100379747495</v>
+        <v>1828.100379747494</v>
       </c>
       <c r="S13" t="n">
-        <v>1828.100379747495</v>
+        <v>1636.262047163858</v>
       </c>
       <c r="T13" t="n">
-        <v>1606.29638781576</v>
+        <v>1414.458055232123</v>
       </c>
       <c r="U13" t="n">
-        <v>1390.443922378288</v>
+        <v>1125.354711210942</v>
       </c>
       <c r="V13" t="n">
-        <v>1135.759434172402</v>
+        <v>870.670223005055</v>
       </c>
       <c r="W13" t="n">
-        <v>846.342264135441</v>
+        <v>581.2530529680944</v>
       </c>
       <c r="X13" t="n">
-        <v>846.342264135441</v>
+        <v>353.263502070077</v>
       </c>
       <c r="Y13" t="n">
-        <v>625.5496849919109</v>
+        <v>132.470922926547</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2058.022006122167</v>
+        <v>1603.087825451807</v>
       </c>
       <c r="C14" t="n">
-        <v>1693.344255685993</v>
+        <v>1557.717647262069</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.36332358348</v>
+        <v>1203.736715159557</v>
       </c>
       <c r="E14" t="n">
-        <v>957.8598374894741</v>
+        <v>822.2332290655506</v>
       </c>
       <c r="F14" t="n">
-        <v>783.7692660686889</v>
+        <v>822.2332290655506</v>
       </c>
       <c r="G14" t="n">
-        <v>372.9620809396641</v>
+        <v>411.4260439365262</v>
       </c>
       <c r="H14" t="n">
-        <v>79.46352753845208</v>
+        <v>117.9274905353143</v>
       </c>
       <c r="I14" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J14" t="n">
-        <v>434.1260816829189</v>
+        <v>266.720432662566</v>
       </c>
       <c r="K14" t="n">
-        <v>765.5141593648991</v>
+        <v>598.1085103445462</v>
       </c>
       <c r="L14" t="n">
-        <v>1213.532134925651</v>
+        <v>1459.611088310243</v>
       </c>
       <c r="M14" t="n">
-        <v>1743.707894003272</v>
+        <v>1989.786847387865</v>
       </c>
       <c r="N14" t="n">
-        <v>2287.076259523295</v>
+        <v>2567.167858033567</v>
       </c>
       <c r="O14" t="n">
-        <v>2786.8283377236</v>
+        <v>3066.919936233873</v>
       </c>
       <c r="P14" t="n">
-        <v>3393.886516271659</v>
+        <v>3458.945771945915</v>
       </c>
       <c r="Q14" t="n">
-        <v>3850.300686731517</v>
+        <v>3915.359942405773</v>
       </c>
       <c r="R14" t="n">
-        <v>3973.176376922604</v>
+        <v>3973.176376922608</v>
       </c>
       <c r="S14" t="n">
-        <v>3973.176376922604</v>
+        <v>3866.72608501812</v>
       </c>
       <c r="T14" t="n">
-        <v>3771.398028089987</v>
+        <v>3664.947736185502</v>
       </c>
       <c r="U14" t="n">
-        <v>3522.1507577498</v>
+        <v>3415.700465845316</v>
       </c>
       <c r="V14" t="n">
-        <v>3195.372636910467</v>
+        <v>3088.922345005984</v>
       </c>
       <c r="W14" t="n">
-        <v>3195.372636910467</v>
+        <v>2740.438456240107</v>
       </c>
       <c r="X14" t="n">
-        <v>2826.191645153625</v>
+        <v>2371.257464483265</v>
       </c>
       <c r="Y14" t="n">
-        <v>2440.337079682051</v>
+        <v>1985.402899011691</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>179.2047066308544</v>
       </c>
       <c r="H15" t="n">
-        <v>88.6020397596416</v>
+        <v>88.60203975964166</v>
       </c>
       <c r="I15" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J15" t="n">
-        <v>172.1746104351556</v>
+        <v>172.1746104351557</v>
       </c>
       <c r="K15" t="n">
-        <v>408.7874426345676</v>
+        <v>408.7874426345677</v>
       </c>
       <c r="L15" t="n">
-        <v>773.2651365189472</v>
+        <v>773.2651365189473</v>
       </c>
       <c r="M15" t="n">
         <v>1217.950282152089</v>
       </c>
       <c r="N15" t="n">
-        <v>1688.813565303939</v>
+        <v>1688.81356530394</v>
       </c>
       <c r="O15" t="n">
         <v>2097.341683579984</v>
       </c>
       <c r="P15" t="n">
-        <v>2405.888448728348</v>
+        <v>2405.888448728349</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.224593690798</v>
+        <v>2568.339582115752</v>
       </c>
       <c r="R15" t="n">
         <v>2568.339582115752</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8559346119823</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="C16" t="n">
-        <v>478.2045181883132</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="D16" t="n">
-        <v>478.2045181883132</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="E16" t="n">
-        <v>478.2045181883132</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="F16" t="n">
-        <v>478.2045181883132</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="G16" t="n">
-        <v>314.7777003754854</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="H16" t="n">
-        <v>172.7675051651698</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="I16" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J16" t="n">
-        <v>128.1795052170301</v>
+        <v>128.1795052170303</v>
       </c>
       <c r="K16" t="n">
-        <v>335.3700899027485</v>
+        <v>335.3700899027488</v>
       </c>
       <c r="L16" t="n">
-        <v>654.8547256166862</v>
+        <v>654.8547256166866</v>
       </c>
       <c r="M16" t="n">
         <v>1001.867318102529</v>
@@ -5449,37 +5449,37 @@
         <v>1346.163197887545</v>
       </c>
       <c r="O16" t="n">
-        <v>1648.480455272042</v>
+        <v>1648.480455272043</v>
       </c>
       <c r="P16" t="n">
         <v>1884.250515869233</v>
       </c>
       <c r="Q16" t="n">
-        <v>1965.342388520321</v>
+        <v>1965.342388520322</v>
       </c>
       <c r="R16" t="n">
-        <v>1879.403369749667</v>
+        <v>1879.403369749669</v>
       </c>
       <c r="S16" t="n">
-        <v>1691.849803670269</v>
+        <v>1691.84980367027</v>
       </c>
       <c r="T16" t="n">
-        <v>1474.330578242772</v>
+        <v>1474.330578242773</v>
       </c>
       <c r="U16" t="n">
-        <v>1189.512000725829</v>
+        <v>1189.51200072583</v>
       </c>
       <c r="V16" t="n">
-        <v>1043.924417331764</v>
+        <v>939.1122790241811</v>
       </c>
       <c r="W16" t="n">
-        <v>1043.924417331764</v>
+        <v>653.9798754914584</v>
       </c>
       <c r="X16" t="n">
-        <v>820.2196329379842</v>
+        <v>430.2750910976791</v>
       </c>
       <c r="Y16" t="n">
-        <v>820.2196329379842</v>
+        <v>256.827225864454</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1951.572015733849</v>
+        <v>1951.572015733853</v>
       </c>
       <c r="C17" t="n">
-        <v>1630.454789082931</v>
+        <v>1630.454789082934</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.034380765674</v>
+        <v>1320.034380765677</v>
       </c>
       <c r="E17" t="n">
-        <v>982.091418456923</v>
+        <v>982.0914184569267</v>
       </c>
       <c r="F17" t="n">
-        <v>618.9508039568091</v>
+        <v>696.648218498177</v>
       </c>
       <c r="G17" t="n">
-        <v>251.7041426130388</v>
+        <v>329.4015571544085</v>
       </c>
       <c r="H17" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="I17" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J17" t="n">
-        <v>434.1260816829189</v>
+        <v>434.126081682919</v>
       </c>
       <c r="K17" t="n">
         <v>765.5141593648991</v>
@@ -5522,43 +5522,43 @@
         <v>1213.532134925651</v>
       </c>
       <c r="M17" t="n">
-        <v>1743.707894003272</v>
+        <v>1856.999153816733</v>
       </c>
       <c r="N17" t="n">
-        <v>2287.076259523295</v>
+        <v>2400.367519336755</v>
       </c>
       <c r="O17" t="n">
-        <v>2786.8283377236</v>
+        <v>3277.111776987178</v>
       </c>
       <c r="P17" t="n">
-        <v>3393.886516271659</v>
+        <v>3669.13761269922</v>
       </c>
       <c r="Q17" t="n">
-        <v>3850.300686731517</v>
+        <v>3915.359942405773</v>
       </c>
       <c r="R17" t="n">
-        <v>3973.176376922604</v>
+        <v>3973.176376922608</v>
       </c>
       <c r="S17" t="n">
-        <v>3910.286608803372</v>
+        <v>3910.286608803376</v>
       </c>
       <c r="T17" t="n">
-        <v>3752.06878375601</v>
+        <v>3752.068783756014</v>
       </c>
       <c r="U17" t="n">
-        <v>3546.38203720108</v>
+        <v>3546.382037201084</v>
       </c>
       <c r="V17" t="n">
-        <v>3263.164440147003</v>
+        <v>3263.164440147007</v>
       </c>
       <c r="W17" t="n">
-        <v>2958.241075166382</v>
+        <v>2958.241075166386</v>
       </c>
       <c r="X17" t="n">
-        <v>2632.620607194795</v>
+        <v>2632.6206071948</v>
       </c>
       <c r="Y17" t="n">
-        <v>2290.326565508477</v>
+        <v>2290.326565508481</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>179.2047066308544</v>
       </c>
       <c r="H18" t="n">
-        <v>88.6020397596416</v>
+        <v>88.60203975964166</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J18" t="n">
-        <v>172.1746104351556</v>
+        <v>172.1746104351557</v>
       </c>
       <c r="K18" t="n">
-        <v>408.7874426345676</v>
+        <v>408.7874426345677</v>
       </c>
       <c r="L18" t="n">
-        <v>773.2651365189472</v>
+        <v>773.2651365189473</v>
       </c>
       <c r="M18" t="n">
         <v>1217.950282152089</v>
       </c>
       <c r="N18" t="n">
-        <v>1688.813565303939</v>
+        <v>1688.81356530394</v>
       </c>
       <c r="O18" t="n">
         <v>2097.341683579984</v>
       </c>
       <c r="P18" t="n">
-        <v>2405.888448728348</v>
+        <v>2412.003437153302</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.224593690798</v>
+        <v>2568.339582115752</v>
       </c>
       <c r="R18" t="n">
         <v>2568.339582115752</v>
@@ -5659,7 +5659,7 @@
         <v>446.567604040963</v>
       </c>
       <c r="F19" t="n">
-        <v>347.522946832546</v>
+        <v>347.5229468325461</v>
       </c>
       <c r="G19" t="n">
         <v>227.656652804974</v>
@@ -5668,10 +5668,10 @@
         <v>129.2069813799141</v>
       </c>
       <c r="I19" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J19" t="n">
-        <v>170.8731745789592</v>
+        <v>170.8731745789593</v>
       </c>
       <c r="K19" t="n">
         <v>420.7574286266068</v>
@@ -5692,28 +5692,28 @@
         <v>2183.106201402737</v>
       </c>
       <c r="Q19" t="n">
-        <v>2306.891743415754</v>
+        <v>2306.891743415755</v>
       </c>
       <c r="R19" t="n">
         <v>2264.513248430357</v>
       </c>
       <c r="S19" t="n">
-        <v>2120.520206136214</v>
+        <v>2120.520206136215</v>
       </c>
       <c r="T19" t="n">
         <v>1946.561504493973</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.303450762285</v>
+        <v>1705.303450762286</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.464252845891</v>
+        <v>1498.464252845892</v>
       </c>
       <c r="W19" t="n">
-        <v>1256.892373098424</v>
+        <v>1256.892373098425</v>
       </c>
       <c r="X19" t="n">
-        <v>1076.7481124899</v>
+        <v>1076.748112489901</v>
       </c>
       <c r="Y19" t="n">
         <v>903.8008236358645</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1951.572015733849</v>
+        <v>1951.572015733853</v>
       </c>
       <c r="C20" t="n">
-        <v>1630.454789082931</v>
+        <v>1630.454789082934</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.731795307042</v>
+        <v>1320.034380765677</v>
       </c>
       <c r="E20" t="n">
-        <v>1059.788832998291</v>
+        <v>982.0914184569267</v>
       </c>
       <c r="F20" t="n">
-        <v>696.648218498177</v>
+        <v>618.9508039568127</v>
       </c>
       <c r="G20" t="n">
-        <v>329.4015571544084</v>
+        <v>251.7041426130446</v>
       </c>
       <c r="H20" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="I20" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J20" t="n">
-        <v>434.1260816829189</v>
+        <v>266.720432662566</v>
       </c>
       <c r="K20" t="n">
-        <v>765.5141593648991</v>
+        <v>878.8054191783594</v>
       </c>
       <c r="L20" t="n">
-        <v>1213.532134925651</v>
+        <v>1326.823394739111</v>
       </c>
       <c r="M20" t="n">
-        <v>1743.707894003272</v>
+        <v>1856.999153816733</v>
       </c>
       <c r="N20" t="n">
-        <v>2287.076259523295</v>
+        <v>2400.367519336755</v>
       </c>
       <c r="O20" t="n">
-        <v>2786.8283377236</v>
+        <v>3277.111776987178</v>
       </c>
       <c r="P20" t="n">
-        <v>3497.43489452541</v>
+        <v>3669.13761269922</v>
       </c>
       <c r="Q20" t="n">
-        <v>3850.300686731517</v>
+        <v>3915.359942405773</v>
       </c>
       <c r="R20" t="n">
-        <v>3973.176376922604</v>
+        <v>3973.176376922608</v>
       </c>
       <c r="S20" t="n">
-        <v>3910.286608803372</v>
+        <v>3910.286608803376</v>
       </c>
       <c r="T20" t="n">
-        <v>3752.06878375601</v>
+        <v>3752.068783756014</v>
       </c>
       <c r="U20" t="n">
-        <v>3546.38203720108</v>
+        <v>3546.382037201083</v>
       </c>
       <c r="V20" t="n">
-        <v>3263.164440147002</v>
+        <v>3263.164440147006</v>
       </c>
       <c r="W20" t="n">
-        <v>2958.241075166382</v>
+        <v>2958.241075166385</v>
       </c>
       <c r="X20" t="n">
-        <v>2632.620607194795</v>
+        <v>2632.620607194799</v>
       </c>
       <c r="Y20" t="n">
-        <v>2290.326565508477</v>
+        <v>2290.326565508481</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>179.2047066308544</v>
       </c>
       <c r="H21" t="n">
-        <v>88.6020397596416</v>
+        <v>88.60203975964166</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J21" t="n">
-        <v>172.1746104351556</v>
+        <v>172.1746104351557</v>
       </c>
       <c r="K21" t="n">
-        <v>408.7874426345676</v>
+        <v>408.7874426345677</v>
       </c>
       <c r="L21" t="n">
-        <v>773.2651365189472</v>
+        <v>773.2651365189473</v>
       </c>
       <c r="M21" t="n">
         <v>1217.950282152089</v>
       </c>
       <c r="N21" t="n">
-        <v>1694.928553728893</v>
+        <v>1688.81356530394</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.456672004938</v>
+        <v>2097.341683579984</v>
       </c>
       <c r="P21" t="n">
-        <v>2412.003437153302</v>
+        <v>2405.888448728349</v>
       </c>
       <c r="Q21" t="n">
-        <v>2568.339582115752</v>
+        <v>2562.224593690799</v>
       </c>
       <c r="R21" t="n">
         <v>2568.339582115752</v>
@@ -5887,37 +5887,37 @@
         <v>769.9976490951183</v>
       </c>
       <c r="C22" t="n">
-        <v>648.9067564567048</v>
+        <v>648.9067564567049</v>
       </c>
       <c r="D22" t="n">
-        <v>546.6354073338625</v>
+        <v>546.6354073338626</v>
       </c>
       <c r="E22" t="n">
-        <v>446.5676040409629</v>
+        <v>446.567604040963</v>
       </c>
       <c r="F22" t="n">
-        <v>347.522946832546</v>
+        <v>347.5229468325462</v>
       </c>
       <c r="G22" t="n">
-        <v>227.656652804974</v>
+        <v>227.6566528049741</v>
       </c>
       <c r="H22" t="n">
-        <v>129.2069813799141</v>
+        <v>129.2069813799142</v>
       </c>
       <c r="I22" t="n">
-        <v>79.46352753845208</v>
+        <v>79.46352753845215</v>
       </c>
       <c r="J22" t="n">
-        <v>170.8731745789592</v>
+        <v>170.8731745789593</v>
       </c>
       <c r="K22" t="n">
         <v>420.7574286266068</v>
       </c>
       <c r="L22" t="n">
-        <v>782.9357337024736</v>
+        <v>782.9357337024737</v>
       </c>
       <c r="M22" t="n">
-        <v>1172.641995550245</v>
+        <v>1172.641995550246</v>
       </c>
       <c r="N22" t="n">
         <v>1559.631544697191</v>
@@ -5926,25 +5926,25 @@
         <v>1904.642471443618</v>
       </c>
       <c r="P22" t="n">
-        <v>2183.106201402737</v>
+        <v>2183.106201402738</v>
       </c>
       <c r="Q22" t="n">
         <v>2306.891743415755</v>
       </c>
       <c r="R22" t="n">
-        <v>2264.513248430357</v>
+        <v>2264.513248430358</v>
       </c>
       <c r="S22" t="n">
         <v>2120.520206136215</v>
       </c>
       <c r="T22" t="n">
-        <v>1946.561504493973</v>
+        <v>1946.561504493974</v>
       </c>
       <c r="U22" t="n">
         <v>1705.303450762286</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.464252845892</v>
+        <v>1498.464252845893</v>
       </c>
       <c r="W22" t="n">
         <v>1256.892373098425</v>
@@ -5987,25 +5987,25 @@
         <v>81.04918905970452</v>
       </c>
       <c r="J23" t="n">
-        <v>409.8607794917893</v>
+        <v>268.3060941838183</v>
       </c>
       <c r="K23" t="n">
-        <v>741.2488571737695</v>
+        <v>599.6941718657986</v>
       </c>
       <c r="L23" t="n">
-        <v>1189.266832734521</v>
+        <v>1047.71214742655</v>
       </c>
       <c r="M23" t="n">
-        <v>1719.442591812143</v>
+        <v>1871.222974205098</v>
       </c>
       <c r="N23" t="n">
-        <v>2262.810957332165</v>
+        <v>2414.59133972512</v>
       </c>
       <c r="O23" t="n">
-        <v>2762.56303553247</v>
+        <v>3291.335597375543</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.16959233428</v>
+        <v>3683.361433087586</v>
       </c>
       <c r="Q23" t="n">
         <v>3929.583762794139</v>
@@ -6072,16 +6072,16 @@
         <v>410.3731041558201</v>
       </c>
       <c r="L24" t="n">
-        <v>774.8507980401997</v>
+        <v>780.9657864651535</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.535943673342</v>
+        <v>1225.650932098295</v>
       </c>
       <c r="N24" t="n">
-        <v>1690.399226825192</v>
+        <v>1696.514215250146</v>
       </c>
       <c r="O24" t="n">
-        <v>2098.927345101237</v>
+        <v>2105.04233352619</v>
       </c>
       <c r="P24" t="n">
         <v>2413.589098674554</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.5833106163705</v>
+        <v>771.5833106163702</v>
       </c>
       <c r="C25" t="n">
-        <v>650.4924179779571</v>
+        <v>650.4924179779568</v>
       </c>
       <c r="D25" t="n">
-        <v>548.2210688551148</v>
+        <v>548.2210688551146</v>
       </c>
       <c r="E25" t="n">
-        <v>448.1532655622152</v>
+        <v>448.153265562215</v>
       </c>
       <c r="F25" t="n">
-        <v>349.1086083537983</v>
+        <v>349.1086083537981</v>
       </c>
       <c r="G25" t="n">
-        <v>229.2423143262263</v>
+        <v>229.2423143262261</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7926429011663</v>
+        <v>130.7926429011666</v>
       </c>
       <c r="I25" t="n">
         <v>81.04918905970452</v>
       </c>
       <c r="J25" t="n">
-        <v>172.458836100212</v>
+        <v>172.4588361002116</v>
       </c>
       <c r="K25" t="n">
-        <v>422.3430901478596</v>
+        <v>422.3430901478592</v>
       </c>
       <c r="L25" t="n">
-        <v>784.5213952237264</v>
+        <v>784.5213952237261</v>
       </c>
       <c r="M25" t="n">
         <v>1174.227657071498</v>
@@ -6160,7 +6160,7 @@
         <v>1561.217206218443</v>
       </c>
       <c r="O25" t="n">
-        <v>1906.22813296487</v>
+        <v>1906.228132964869</v>
       </c>
       <c r="P25" t="n">
         <v>2184.691862923989</v>
@@ -6190,7 +6190,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.3864851571167</v>
+        <v>905.3864851571165</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2030.85509179647</v>
+        <v>2030.855091796471</v>
       </c>
       <c r="C26" t="n">
         <v>1709.737865145552</v>
@@ -6212,7 +6212,7 @@
         <v>1061.374494519544</v>
       </c>
       <c r="F26" t="n">
-        <v>698.2338800194299</v>
+        <v>698.2338800194303</v>
       </c>
       <c r="G26" t="n">
         <v>330.9872186756608</v>
@@ -6224,25 +6224,25 @@
         <v>81.04918905970452</v>
       </c>
       <c r="J26" t="n">
-        <v>268.3060941838183</v>
+        <v>435.7117432041714</v>
       </c>
       <c r="K26" t="n">
-        <v>920.5981303112517</v>
+        <v>767.0998208861515</v>
       </c>
       <c r="L26" t="n">
-        <v>1368.616105872003</v>
+        <v>1215.117796446903</v>
       </c>
       <c r="M26" t="n">
-        <v>1898.791864949625</v>
+        <v>2190.311953682429</v>
       </c>
       <c r="N26" t="n">
-        <v>2442.160230469647</v>
+        <v>2733.680319202451</v>
       </c>
       <c r="O26" t="n">
-        <v>2941.912308669952</v>
+        <v>3233.432397402757</v>
       </c>
       <c r="P26" t="n">
-        <v>3652.518865471763</v>
+        <v>3748.420688761838</v>
       </c>
       <c r="Q26" t="n">
         <v>3994.643018468391</v>
@@ -6309,10 +6309,10 @@
         <v>410.3731041558201</v>
       </c>
       <c r="L27" t="n">
-        <v>774.8507980401997</v>
+        <v>780.9657864651535</v>
       </c>
       <c r="M27" t="n">
-        <v>1219.535943673342</v>
+        <v>1225.650932098295</v>
       </c>
       <c r="N27" t="n">
         <v>1696.514215250146</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.5833106163698</v>
+        <v>771.5833106163697</v>
       </c>
       <c r="C28" t="n">
         <v>650.4924179779563</v>
@@ -6385,25 +6385,25 @@
         <v>172.4588361002116</v>
       </c>
       <c r="K28" t="n">
-        <v>422.3430901478591</v>
+        <v>422.343090147859</v>
       </c>
       <c r="L28" t="n">
-        <v>784.521395223726</v>
+        <v>784.5213952237259</v>
       </c>
       <c r="M28" t="n">
-        <v>1174.227657071497</v>
+        <v>1174.227657071498</v>
       </c>
       <c r="N28" t="n">
         <v>1561.217206218443</v>
       </c>
       <c r="O28" t="n">
-        <v>1906.228132964869</v>
+        <v>1906.22813296487</v>
       </c>
       <c r="P28" t="n">
         <v>2184.691862923989</v>
       </c>
       <c r="Q28" t="n">
-        <v>2308.477404937006</v>
+        <v>2308.477404937007</v>
       </c>
       <c r="R28" t="n">
         <v>2266.098909951609</v>
@@ -6424,10 +6424,10 @@
         <v>1258.478034619677</v>
       </c>
       <c r="X28" t="n">
-        <v>1078.333774011153</v>
+        <v>1078.333774011152</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.386485157116</v>
+        <v>905.3864851571159</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1075.453013033468</v>
       </c>
       <c r="F29" t="n">
-        <v>708.0276320291164</v>
+        <v>708.0276320291163</v>
       </c>
       <c r="G29" t="n">
         <v>336.4962041811094</v>
@@ -6464,22 +6464,22 @@
         <v>269.5303131850292</v>
       </c>
       <c r="K29" t="n">
-        <v>600.9183908670093</v>
+        <v>741.0813858404258</v>
       </c>
       <c r="L29" t="n">
-        <v>1048.936366427761</v>
+        <v>1189.099361401177</v>
       </c>
       <c r="M29" t="n">
-        <v>2024.130523663287</v>
+        <v>2164.293518636704</v>
       </c>
       <c r="N29" t="n">
-        <v>2917.853724910031</v>
+        <v>2707.661884156726</v>
       </c>
       <c r="O29" t="n">
-        <v>3417.605803110336</v>
+        <v>3207.413962357031</v>
       </c>
       <c r="P29" t="n">
-        <v>3809.631638822379</v>
+        <v>3599.439798069073</v>
       </c>
       <c r="Q29" t="n">
         <v>4055.853968528932</v>
@@ -6549,7 +6549,7 @@
         <v>776.0750170414104</v>
       </c>
       <c r="M30" t="n">
-        <v>1220.760162674552</v>
+        <v>1226.875151099506</v>
       </c>
       <c r="N30" t="n">
         <v>1697.738434251357</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.6486338730136</v>
+        <v>700.6486338730123</v>
       </c>
       <c r="C31" t="n">
-        <v>575.2729747303624</v>
+        <v>575.2729747303609</v>
       </c>
       <c r="D31" t="n">
-        <v>468.7168591032823</v>
+        <v>468.7168591032809</v>
       </c>
       <c r="E31" t="n">
-        <v>364.3642893061449</v>
+        <v>364.3642893061433</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0348655934902</v>
+        <v>261.0348655934886</v>
       </c>
       <c r="G31" t="n">
-        <v>136.8838050616804</v>
+        <v>136.8838050616787</v>
       </c>
       <c r="H31" t="n">
-        <v>136.3016284066151</v>
+        <v>136.3016284066152</v>
       </c>
       <c r="I31" t="n">
         <v>82.27340806091532</v>
       </c>
       <c r="J31" t="n">
-        <v>169.4835554506193</v>
+        <v>169.4835554506189</v>
       </c>
       <c r="K31" t="n">
-        <v>415.1683098474634</v>
+        <v>415.1683098474629</v>
       </c>
       <c r="L31" t="n">
-        <v>773.1471152725269</v>
+        <v>773.1471152725263</v>
       </c>
       <c r="M31" t="n">
-        <v>1158.653877469495</v>
+        <v>1158.653877469494</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.443926965637</v>
+        <v>1541.443926965636</v>
       </c>
       <c r="O31" t="n">
         <v>1882.25535406126</v>
@@ -6646,25 +6646,25 @@
         <v>2229.442365242154</v>
       </c>
       <c r="S31" t="n">
-        <v>2081.164556443774</v>
+        <v>2081.164556443773</v>
       </c>
       <c r="T31" t="n">
-        <v>1902.921088297295</v>
+        <v>1902.921088297294</v>
       </c>
       <c r="U31" t="n">
         <v>1657.378268061369</v>
       </c>
       <c r="V31" t="n">
-        <v>1446.254303640738</v>
+        <v>1446.254303640737</v>
       </c>
       <c r="W31" t="n">
-        <v>1200.397657389033</v>
+        <v>1200.397657389032</v>
       </c>
       <c r="X31" t="n">
-        <v>1015.968630276272</v>
+        <v>1015.968630276271</v>
       </c>
       <c r="Y31" t="n">
-        <v>838.7365749179976</v>
+        <v>838.7365749179963</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2030.85509179647</v>
+        <v>2030.855091796471</v>
       </c>
       <c r="C32" t="n">
         <v>1709.737865145552</v>
@@ -6683,46 +6683,46 @@
         <v>1399.317456828295</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.374494519544</v>
+        <v>1061.374494519545</v>
       </c>
       <c r="F32" t="n">
-        <v>698.23388001943</v>
+        <v>698.2338800194307</v>
       </c>
       <c r="G32" t="n">
         <v>330.9872186756608</v>
       </c>
       <c r="H32" t="n">
-        <v>81.0491890597045</v>
+        <v>81.04918905970452</v>
       </c>
       <c r="I32" t="n">
-        <v>81.0491890597045</v>
+        <v>81.04918905970452</v>
       </c>
       <c r="J32" t="n">
-        <v>435.7117432041714</v>
+        <v>268.3060941838185</v>
       </c>
       <c r="K32" t="n">
-        <v>767.0998208861515</v>
+        <v>920.5981303112519</v>
       </c>
       <c r="L32" t="n">
-        <v>1215.117796446903</v>
+        <v>1507.847553824287</v>
       </c>
       <c r="M32" t="n">
-        <v>1745.293555524525</v>
+        <v>2038.02331290191</v>
       </c>
       <c r="N32" t="n">
-        <v>2288.661921044547</v>
+        <v>2581.391678421932</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.413999244852</v>
+        <v>3081.143756622238</v>
       </c>
       <c r="P32" t="n">
         <v>3473.16959233428</v>
       </c>
       <c r="Q32" t="n">
-        <v>3929.583762794138</v>
+        <v>3929.583762794139</v>
       </c>
       <c r="R32" t="n">
-        <v>4052.459452985225</v>
+        <v>4052.459452985226</v>
       </c>
       <c r="S32" t="n">
         <v>3989.569684865994</v>
@@ -6737,13 +6737,13 @@
         <v>3342.447516209624</v>
       </c>
       <c r="W32" t="n">
-        <v>3037.524151229003</v>
+        <v>3037.524151229004</v>
       </c>
       <c r="X32" t="n">
         <v>2711.903683257417</v>
       </c>
       <c r="Y32" t="n">
-        <v>2369.609641571098</v>
+        <v>2369.609641571099</v>
       </c>
     </row>
     <row r="33">
@@ -6762,43 +6762,43 @@
         <v>622.9359155088086</v>
       </c>
       <c r="E33" t="n">
-        <v>463.6984605033532</v>
+        <v>463.6984605033531</v>
       </c>
       <c r="F33" t="n">
         <v>317.1639025302381</v>
       </c>
       <c r="G33" t="n">
-        <v>180.7903681521068</v>
+        <v>180.7903681521067</v>
       </c>
       <c r="H33" t="n">
         <v>90.187701280894</v>
       </c>
       <c r="I33" t="n">
-        <v>81.0491890597045</v>
+        <v>81.04918905970452</v>
       </c>
       <c r="J33" t="n">
-        <v>173.760271956408</v>
+        <v>173.7602719564081</v>
       </c>
       <c r="K33" t="n">
-        <v>410.37310415582</v>
+        <v>410.3731041558201</v>
       </c>
       <c r="L33" t="n">
-        <v>774.8507980401996</v>
+        <v>774.8507980401998</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.535943673341</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N33" t="n">
         <v>1690.399226825192</v>
       </c>
       <c r="O33" t="n">
-        <v>2098.927345101236</v>
+        <v>2098.927345101237</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.4741102496</v>
+        <v>2407.474110249601</v>
       </c>
       <c r="Q33" t="n">
-        <v>2569.925243637005</v>
+        <v>2563.810255212051</v>
       </c>
       <c r="R33" t="n">
         <v>2569.925243637005</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.5833106163703</v>
+        <v>771.5833106163706</v>
       </c>
       <c r="C34" t="n">
-        <v>650.492417977957</v>
+        <v>650.4924179779572</v>
       </c>
       <c r="D34" t="n">
-        <v>548.2210688551147</v>
+        <v>548.2210688551149</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1532655622151</v>
+        <v>448.1532655622153</v>
       </c>
       <c r="F34" t="n">
-        <v>349.1086083537983</v>
+        <v>349.1086083537984</v>
       </c>
       <c r="G34" t="n">
-        <v>229.2423143262262</v>
+        <v>229.2423143262263</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7926429011665</v>
+        <v>130.7926429011664</v>
       </c>
       <c r="I34" t="n">
-        <v>81.0491890597045</v>
+        <v>81.04918905970452</v>
       </c>
       <c r="J34" t="n">
-        <v>172.4588361002117</v>
+        <v>172.4588361002116</v>
       </c>
       <c r="K34" t="n">
-        <v>422.3430901478593</v>
+        <v>422.3430901478592</v>
       </c>
       <c r="L34" t="n">
         <v>784.5213952237261</v>
@@ -6868,7 +6868,7 @@
         <v>1174.227657071498</v>
       </c>
       <c r="N34" t="n">
-        <v>1561.217206218443</v>
+        <v>1561.217206218444</v>
       </c>
       <c r="O34" t="n">
         <v>1906.22813296487</v>
@@ -6886,13 +6886,13 @@
         <v>2122.105867657467</v>
       </c>
       <c r="T34" t="n">
-        <v>1948.147166015225</v>
+        <v>1948.147166015226</v>
       </c>
       <c r="U34" t="n">
         <v>1706.889112283538</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.049914367144</v>
+        <v>1500.049914367145</v>
       </c>
       <c r="W34" t="n">
         <v>1258.478034619677</v>
@@ -6901,7 +6901,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.3864851571166</v>
+        <v>905.3864851571168</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2030.85509179647</v>
+        <v>2030.855091796471</v>
       </c>
       <c r="C35" t="n">
-        <v>1709.737865145552</v>
+        <v>1709.737865145553</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.317456828295</v>
+        <v>1399.317456828296</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.374494519544</v>
+        <v>1061.374494519545</v>
       </c>
       <c r="F35" t="n">
-        <v>698.23388001943</v>
+        <v>698.2338800194309</v>
       </c>
       <c r="G35" t="n">
         <v>330.9872186756608</v>
       </c>
       <c r="H35" t="n">
-        <v>81.0491890597045</v>
+        <v>81.04918905970452</v>
       </c>
       <c r="I35" t="n">
-        <v>81.0491890597045</v>
+        <v>81.04918905970452</v>
       </c>
       <c r="J35" t="n">
-        <v>435.7117432041714</v>
+        <v>268.3060941838183</v>
       </c>
       <c r="K35" t="n">
-        <v>767.0998208861515</v>
+        <v>599.6941718657986</v>
       </c>
       <c r="L35" t="n">
-        <v>1215.117796446903</v>
+        <v>1461.196749831496</v>
       </c>
       <c r="M35" t="n">
-        <v>1745.293555524525</v>
+        <v>1991.372508909118</v>
       </c>
       <c r="N35" t="n">
-        <v>2288.661921044547</v>
+        <v>2534.74087442914</v>
       </c>
       <c r="O35" t="n">
-        <v>3081.143756622237</v>
+        <v>3081.143756622238</v>
       </c>
       <c r="P35" t="n">
         <v>3473.16959233428</v>
       </c>
       <c r="Q35" t="n">
-        <v>3929.583762794138</v>
+        <v>3929.583762794139</v>
       </c>
       <c r="R35" t="n">
-        <v>4052.459452985225</v>
+        <v>4052.459452985226</v>
       </c>
       <c r="S35" t="n">
-        <v>3989.569684865993</v>
+        <v>3989.569684865994</v>
       </c>
       <c r="T35" t="n">
         <v>3831.351859818632</v>
@@ -6974,13 +6974,13 @@
         <v>3342.447516209624</v>
       </c>
       <c r="W35" t="n">
-        <v>3037.524151229003</v>
+        <v>3037.524151229004</v>
       </c>
       <c r="X35" t="n">
         <v>2711.903683257417</v>
       </c>
       <c r="Y35" t="n">
-        <v>2369.609641571098</v>
+        <v>2369.609641571099</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>180.7903681521068</v>
       </c>
       <c r="H36" t="n">
-        <v>90.187701280894</v>
+        <v>90.18770128089403</v>
       </c>
       <c r="I36" t="n">
-        <v>81.0491890597045</v>
+        <v>81.04918905970452</v>
       </c>
       <c r="J36" t="n">
-        <v>173.760271956408</v>
+        <v>173.7602719564081</v>
       </c>
       <c r="K36" t="n">
-        <v>410.37310415582</v>
+        <v>410.3731041558201</v>
       </c>
       <c r="L36" t="n">
-        <v>774.8507980401996</v>
+        <v>774.8507980401997</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.535943673341</v>
+        <v>1219.535943673342</v>
       </c>
       <c r="N36" t="n">
         <v>1690.399226825192</v>
       </c>
       <c r="O36" t="n">
-        <v>2098.927345101236</v>
+        <v>2098.927345101237</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.4741102496</v>
+        <v>2407.474110249601</v>
       </c>
       <c r="Q36" t="n">
         <v>2563.810255212051</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.5833106163698</v>
+        <v>771.5833106163706</v>
       </c>
       <c r="C37" t="n">
-        <v>650.4924179779564</v>
+        <v>650.4924179779572</v>
       </c>
       <c r="D37" t="n">
-        <v>548.2210688551141</v>
+        <v>548.2210688551149</v>
       </c>
       <c r="E37" t="n">
-        <v>448.1532655622146</v>
+        <v>448.1532655622153</v>
       </c>
       <c r="F37" t="n">
-        <v>349.1086083537978</v>
+        <v>349.1086083537984</v>
       </c>
       <c r="G37" t="n">
-        <v>229.2423143262258</v>
+        <v>229.2423143262264</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7926429011659</v>
+        <v>130.7926429011665</v>
       </c>
       <c r="I37" t="n">
-        <v>81.0491890597045</v>
+        <v>81.04918905970452</v>
       </c>
       <c r="J37" t="n">
-        <v>172.4588361002116</v>
+        <v>172.4588361002117</v>
       </c>
       <c r="K37" t="n">
         <v>422.3430901478592</v>
       </c>
       <c r="L37" t="n">
-        <v>784.5213952237259</v>
+        <v>784.5213952237261</v>
       </c>
       <c r="M37" t="n">
         <v>1174.227657071498</v>
@@ -7108,7 +7108,7 @@
         <v>1561.217206218443</v>
       </c>
       <c r="O37" t="n">
-        <v>1906.228132964869</v>
+        <v>1906.22813296487</v>
       </c>
       <c r="P37" t="n">
         <v>2184.691862923989</v>
@@ -7117,28 +7117,28 @@
         <v>2308.477404937007</v>
       </c>
       <c r="R37" t="n">
-        <v>2266.098909951608</v>
+        <v>2266.098909951609</v>
       </c>
       <c r="S37" t="n">
-        <v>2122.105867657466</v>
+        <v>2122.105867657467</v>
       </c>
       <c r="T37" t="n">
-        <v>1948.147166015224</v>
+        <v>1948.147166015225</v>
       </c>
       <c r="U37" t="n">
-        <v>1706.889112283537</v>
+        <v>1706.889112283538</v>
       </c>
       <c r="V37" t="n">
         <v>1500.049914367144</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.478034619676</v>
+        <v>1258.478034619677</v>
       </c>
       <c r="X37" t="n">
-        <v>1078.333774011152</v>
+        <v>1078.333774011153</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.3864851571159</v>
+        <v>905.3864851571168</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1061.374494519543</v>
       </c>
       <c r="F38" t="n">
-        <v>698.2338800194293</v>
+        <v>698.2338800194292</v>
       </c>
       <c r="G38" t="n">
-        <v>330.9872186756607</v>
+        <v>330.9872186756608</v>
       </c>
       <c r="H38" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="I38" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J38" t="n">
-        <v>268.3060941838183</v>
+        <v>435.7117432041713</v>
       </c>
       <c r="K38" t="n">
-        <v>806.3081128480203</v>
+        <v>767.0998208861515</v>
       </c>
       <c r="L38" t="n">
-        <v>1254.326088408772</v>
+        <v>1215.117796446903</v>
       </c>
       <c r="M38" t="n">
-        <v>1784.501847486394</v>
+        <v>1745.293555524525</v>
       </c>
       <c r="N38" t="n">
-        <v>2327.870213006416</v>
+        <v>2288.661921044547</v>
       </c>
       <c r="O38" t="n">
-        <v>2827.622291206721</v>
+        <v>3081.143756622237</v>
       </c>
       <c r="P38" t="n">
-        <v>3538.228848008531</v>
+        <v>3473.169592334279</v>
       </c>
       <c r="Q38" t="n">
-        <v>3994.64301846839</v>
+        <v>3929.583762794137</v>
       </c>
       <c r="R38" t="n">
         <v>4052.459452985224</v>
       </c>
       <c r="S38" t="n">
-        <v>3989.569684865992</v>
+        <v>3989.569684865993</v>
       </c>
       <c r="T38" t="n">
-        <v>3831.35185981863</v>
+        <v>3831.351859818631</v>
       </c>
       <c r="U38" t="n">
         <v>3625.6651132637</v>
       </c>
       <c r="V38" t="n">
-        <v>3342.447516209622</v>
+        <v>3342.447516209623</v>
       </c>
       <c r="W38" t="n">
         <v>3037.524151229002</v>
       </c>
       <c r="X38" t="n">
-        <v>2711.903683257415</v>
+        <v>2711.903683257416</v>
       </c>
       <c r="Y38" t="n">
-        <v>2369.609641571097</v>
+        <v>2369.609641571098</v>
       </c>
     </row>
     <row r="39">
@@ -7236,19 +7236,19 @@
         <v>622.9359155088086</v>
       </c>
       <c r="E39" t="n">
-        <v>463.6984605033531</v>
+        <v>463.6984605033532</v>
       </c>
       <c r="F39" t="n">
         <v>317.1639025302381</v>
       </c>
       <c r="G39" t="n">
-        <v>180.7903681521067</v>
+        <v>180.7903681521068</v>
       </c>
       <c r="H39" t="n">
-        <v>90.18770128089398</v>
+        <v>90.187701280894</v>
       </c>
       <c r="I39" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J39" t="n">
         <v>173.760271956408</v>
@@ -7257,22 +7257,22 @@
         <v>410.37310415582</v>
       </c>
       <c r="L39" t="n">
-        <v>774.8507980401996</v>
+        <v>780.9657864651535</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.535943673341</v>
+        <v>1225.650932098295</v>
       </c>
       <c r="N39" t="n">
-        <v>1690.399226825192</v>
+        <v>1696.514215250146</v>
       </c>
       <c r="O39" t="n">
-        <v>2098.927345101236</v>
+        <v>2105.04233352619</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.4741102496</v>
+        <v>2413.589098674554</v>
       </c>
       <c r="Q39" t="n">
-        <v>2563.810255212051</v>
+        <v>2569.925243637005</v>
       </c>
       <c r="R39" t="n">
         <v>2569.925243637005</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.5833106163702</v>
+        <v>771.5833106163706</v>
       </c>
       <c r="C40" t="n">
-        <v>650.4924179779568</v>
+        <v>650.4924179779572</v>
       </c>
       <c r="D40" t="n">
-        <v>548.2210688551147</v>
+        <v>548.2210688551149</v>
       </c>
       <c r="E40" t="n">
-        <v>448.1532655622151</v>
+        <v>448.1532655622153</v>
       </c>
       <c r="F40" t="n">
-        <v>349.1086083537983</v>
+        <v>349.1086083537984</v>
       </c>
       <c r="G40" t="n">
-        <v>229.2423143262263</v>
+        <v>229.2423143262264</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7926429011664</v>
+        <v>130.7926429011665</v>
       </c>
       <c r="I40" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J40" t="n">
         <v>172.4588361002116</v>
@@ -7336,34 +7336,34 @@
         <v>422.3430901478592</v>
       </c>
       <c r="L40" t="n">
-        <v>784.5213952237256</v>
+        <v>784.5213952237261</v>
       </c>
       <c r="M40" t="n">
-        <v>1174.227657071497</v>
+        <v>1174.227657071498</v>
       </c>
       <c r="N40" t="n">
         <v>1561.217206218443</v>
       </c>
       <c r="O40" t="n">
-        <v>1906.228132964869</v>
+        <v>1906.22813296487</v>
       </c>
       <c r="P40" t="n">
         <v>2184.691862923989</v>
       </c>
       <c r="Q40" t="n">
-        <v>2308.477404937006</v>
+        <v>2308.477404937007</v>
       </c>
       <c r="R40" t="n">
         <v>2266.098909951609</v>
       </c>
       <c r="S40" t="n">
-        <v>2122.105867657466</v>
+        <v>2122.105867657467</v>
       </c>
       <c r="T40" t="n">
         <v>1948.147166015225</v>
       </c>
       <c r="U40" t="n">
-        <v>1706.889112283537</v>
+        <v>1706.889112283538</v>
       </c>
       <c r="V40" t="n">
         <v>1500.049914367144</v>
@@ -7375,7 +7375,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y40" t="n">
-        <v>905.3864851571163</v>
+        <v>905.3864851571168</v>
       </c>
     </row>
     <row r="41">
@@ -7394,52 +7394,52 @@
         <v>1399.317456828294</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.374494519544</v>
+        <v>1061.374494519543</v>
       </c>
       <c r="F41" t="n">
-        <v>698.2338800194294</v>
+        <v>698.2338800194293</v>
       </c>
       <c r="G41" t="n">
         <v>330.9872186756608</v>
       </c>
       <c r="H41" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="I41" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J41" t="n">
-        <v>435.7117432041713</v>
+        <v>268.3060941838183</v>
       </c>
       <c r="K41" t="n">
-        <v>1088.003779331605</v>
+        <v>599.6941718657986</v>
       </c>
       <c r="L41" t="n">
-        <v>1536.021754892356</v>
+        <v>1087.52574971196</v>
       </c>
       <c r="M41" t="n">
-        <v>2066.197513969978</v>
+        <v>1617.701508789582</v>
       </c>
       <c r="N41" t="n">
-        <v>2609.56587949</v>
+        <v>2161.069874309604</v>
       </c>
       <c r="O41" t="n">
-        <v>3109.317957690305</v>
+        <v>3037.814131960027</v>
       </c>
       <c r="P41" t="n">
-        <v>3501.343793402347</v>
+        <v>3748.420688761837</v>
       </c>
       <c r="Q41" t="n">
-        <v>3929.583762794137</v>
+        <v>3994.64301846839</v>
       </c>
       <c r="R41" t="n">
         <v>4052.459452985224</v>
       </c>
       <c r="S41" t="n">
-        <v>3989.569684865992</v>
+        <v>3989.569684865993</v>
       </c>
       <c r="T41" t="n">
-        <v>3831.35185981863</v>
+        <v>3831.351859818631</v>
       </c>
       <c r="U41" t="n">
         <v>3625.6651132637</v>
@@ -7485,31 +7485,31 @@
         <v>90.187701280894</v>
       </c>
       <c r="I42" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J42" t="n">
         <v>173.760271956408</v>
       </c>
       <c r="K42" t="n">
-        <v>410.3731041558199</v>
+        <v>410.37310415582</v>
       </c>
       <c r="L42" t="n">
-        <v>774.8507980401994</v>
+        <v>780.9657864651535</v>
       </c>
       <c r="M42" t="n">
-        <v>1219.535943673341</v>
+        <v>1225.650932098295</v>
       </c>
       <c r="N42" t="n">
-        <v>1690.399226825191</v>
+        <v>1696.514215250146</v>
       </c>
       <c r="O42" t="n">
-        <v>2098.927345101236</v>
+        <v>2105.04233352619</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.4741102496</v>
+        <v>2413.589098674554</v>
       </c>
       <c r="Q42" t="n">
-        <v>2563.81025521205</v>
+        <v>2569.925243637005</v>
       </c>
       <c r="R42" t="n">
         <v>2569.925243637005</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.5833106163702</v>
+        <v>771.5833106163706</v>
       </c>
       <c r="C43" t="n">
-        <v>650.4924179779568</v>
+        <v>650.4924179779572</v>
       </c>
       <c r="D43" t="n">
-        <v>548.2210688551146</v>
+        <v>548.2210688551149</v>
       </c>
       <c r="E43" t="n">
-        <v>448.153265562215</v>
+        <v>448.1532655622153</v>
       </c>
       <c r="F43" t="n">
-        <v>349.1086083537982</v>
+        <v>349.1086083537984</v>
       </c>
       <c r="G43" t="n">
-        <v>229.2423143262262</v>
+        <v>229.2423143262264</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7926429011664</v>
+        <v>130.7926429011665</v>
       </c>
       <c r="I43" t="n">
-        <v>81.04918905970447</v>
+        <v>81.04918905970449</v>
       </c>
       <c r="J43" t="n">
         <v>172.4588361002116</v>
@@ -7573,19 +7573,19 @@
         <v>422.3430901478591</v>
       </c>
       <c r="L43" t="n">
-        <v>784.5213952237259</v>
+        <v>784.521395223726</v>
       </c>
       <c r="M43" t="n">
         <v>1174.227657071498</v>
       </c>
       <c r="N43" t="n">
-        <v>1561.217206218443</v>
+        <v>1561.217206218444</v>
       </c>
       <c r="O43" t="n">
         <v>1906.22813296487</v>
       </c>
       <c r="P43" t="n">
-        <v>2184.691862923989</v>
+        <v>2184.69186292399</v>
       </c>
       <c r="Q43" t="n">
         <v>2308.477404937007</v>
@@ -7594,13 +7594,13 @@
         <v>2266.098909951609</v>
       </c>
       <c r="S43" t="n">
-        <v>2122.105867657466</v>
+        <v>2122.105867657467</v>
       </c>
       <c r="T43" t="n">
         <v>1948.147166015225</v>
       </c>
       <c r="U43" t="n">
-        <v>1706.889112283537</v>
+        <v>1706.889112283538</v>
       </c>
       <c r="V43" t="n">
         <v>1500.049914367144</v>
@@ -7612,7 +7612,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.3864851571163</v>
+        <v>905.3864851571168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.855091796468</v>
+        <v>2030.85509179647</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.73786514555</v>
+        <v>1709.737865145551</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.317456828293</v>
+        <v>1399.317456828294</v>
       </c>
       <c r="E44" t="n">
         <v>1061.374494519543</v>
       </c>
       <c r="F44" t="n">
-        <v>698.2338800194289</v>
+        <v>698.2338800194292</v>
       </c>
       <c r="G44" t="n">
         <v>330.9872186756608</v>
       </c>
       <c r="H44" t="n">
-        <v>81.04918905970447</v>
+        <v>81.0491890597045</v>
       </c>
       <c r="I44" t="n">
-        <v>81.04918905970447</v>
+        <v>81.0491890597045</v>
       </c>
       <c r="J44" t="n">
-        <v>435.7117432041713</v>
+        <v>268.3060941838183</v>
       </c>
       <c r="K44" t="n">
-        <v>767.0998208861513</v>
+        <v>599.6941718657986</v>
       </c>
       <c r="L44" t="n">
-        <v>1215.117796446903</v>
+        <v>1461.196749831496</v>
       </c>
       <c r="M44" t="n">
-        <v>1745.293555524524</v>
+        <v>1991.372508909118</v>
       </c>
       <c r="N44" t="n">
-        <v>2288.661921044546</v>
+        <v>2791.583519175237</v>
       </c>
       <c r="O44" t="n">
-        <v>2788.413999244851</v>
+        <v>3291.335597375542</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.169592334279</v>
+        <v>3683.361433087585</v>
       </c>
       <c r="Q44" t="n">
-        <v>3929.583762794137</v>
+        <v>3929.583762794138</v>
       </c>
       <c r="R44" t="n">
-        <v>4052.459452985224</v>
+        <v>4052.459452985225</v>
       </c>
       <c r="S44" t="n">
-        <v>3989.569684865992</v>
+        <v>3989.569684865993</v>
       </c>
       <c r="T44" t="n">
-        <v>3831.35185981863</v>
+        <v>3831.351859818631</v>
       </c>
       <c r="U44" t="n">
-        <v>3625.665113263699</v>
+        <v>3625.665113263701</v>
       </c>
       <c r="V44" t="n">
-        <v>3342.447516209622</v>
+        <v>3342.447516209624</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.524151229001</v>
+        <v>3037.524151229003</v>
       </c>
       <c r="X44" t="n">
-        <v>2711.903683257415</v>
+        <v>2711.903683257417</v>
       </c>
       <c r="Y44" t="n">
-        <v>2369.609641571097</v>
+        <v>2369.609641571098</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>90.187701280894</v>
       </c>
       <c r="I45" t="n">
-        <v>81.04918905970447</v>
+        <v>81.0491890597045</v>
       </c>
       <c r="J45" t="n">
         <v>173.760271956408</v>
       </c>
       <c r="K45" t="n">
-        <v>410.3731041558199</v>
+        <v>410.37310415582</v>
       </c>
       <c r="L45" t="n">
-        <v>774.8507980401994</v>
+        <v>774.8507980401996</v>
       </c>
       <c r="M45" t="n">
         <v>1219.535943673341</v>
       </c>
       <c r="N45" t="n">
-        <v>1690.399226825191</v>
+        <v>1696.514215250146</v>
       </c>
       <c r="O45" t="n">
-        <v>2098.927345101236</v>
+        <v>2105.04233352619</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.4741102496</v>
+        <v>2413.589098674554</v>
       </c>
       <c r="Q45" t="n">
-        <v>2563.81025521205</v>
+        <v>2569.925243637005</v>
       </c>
       <c r="R45" t="n">
         <v>2569.925243637005</v>
@@ -7780,64 +7780,64 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.5833106163702</v>
+        <v>771.5833106163706</v>
       </c>
       <c r="C46" t="n">
-        <v>650.4924179779568</v>
+        <v>650.4924179779572</v>
       </c>
       <c r="D46" t="n">
-        <v>548.2210688551147</v>
+        <v>548.2210688551149</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1532655622151</v>
+        <v>448.1532655622153</v>
       </c>
       <c r="F46" t="n">
-        <v>349.1086083537983</v>
+        <v>349.1086083537984</v>
       </c>
       <c r="G46" t="n">
-        <v>229.2423143262263</v>
+        <v>229.2423143262264</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7926429011664</v>
+        <v>130.7926429011665</v>
       </c>
       <c r="I46" t="n">
-        <v>81.04918905970447</v>
+        <v>81.0491890597045</v>
       </c>
       <c r="J46" t="n">
-        <v>172.4588361002113</v>
+        <v>172.4588361002116</v>
       </c>
       <c r="K46" t="n">
-        <v>422.3430901478588</v>
+        <v>422.3430901478592</v>
       </c>
       <c r="L46" t="n">
-        <v>784.5213952237257</v>
+        <v>784.5213952237261</v>
       </c>
       <c r="M46" t="n">
-        <v>1174.227657071497</v>
+        <v>1174.227657071498</v>
       </c>
       <c r="N46" t="n">
         <v>1561.217206218443</v>
       </c>
       <c r="O46" t="n">
-        <v>1906.228132964869</v>
+        <v>1906.22813296487</v>
       </c>
       <c r="P46" t="n">
         <v>2184.691862923989</v>
       </c>
       <c r="Q46" t="n">
-        <v>2308.477404937006</v>
+        <v>2308.477404937007</v>
       </c>
       <c r="R46" t="n">
         <v>2266.098909951609</v>
       </c>
       <c r="S46" t="n">
-        <v>2122.105867657466</v>
+        <v>2122.105867657467</v>
       </c>
       <c r="T46" t="n">
         <v>1948.147166015225</v>
       </c>
       <c r="U46" t="n">
-        <v>1706.889112283537</v>
+        <v>1706.889112283538</v>
       </c>
       <c r="V46" t="n">
         <v>1500.049914367144</v>
@@ -7849,7 +7849,7 @@
         <v>1078.333774011153</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.3864851571163</v>
+        <v>905.3864851571168</v>
       </c>
     </row>
   </sheetData>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>246.5357332704046</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>157.4367714371534</v>
+        <v>156.8184790122994</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>149.2771449294653</v>
       </c>
       <c r="Q9" t="n">
-        <v>154.6662191763026</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M10" t="n">
         <v>154.2285214627401</v>
@@ -8623,7 +8623,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>34.35620719765689</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>217.204386703047</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.176755984801645</v>
       </c>
       <c r="R15" t="n">
-        <v>6.961023842841709</v>
+        <v>0.7842678580397546</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>114.4356159731921</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>217.204386703047</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>6.176755984801503</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.961023842841709</v>
+        <v>0.7842678580397546</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>283.5322311452658</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>107.7206691914689</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.176755984801957</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7842678580397546</v>
+        <v>6.96102384284125</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>142.984530614112</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>296.2980481827535</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6.176755984801844</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>6.176755984801503</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>124.2045006535751</v>
       </c>
       <c r="Q26" t="n">
-        <v>96.8705285758343</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.176755984801844</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6.17675598480173</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>141.5787828014307</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8937734613353</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>6.176755984802298</v>
       </c>
       <c r="N30" t="n">
-        <v>6.176755984802185</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>140.6378262144281</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>295.6866236135205</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.176755984802099</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7842678580397546</v>
+        <v>6.961023842841222</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>295.6866236135199</v>
+        <v>47.12202423514441</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.961023842841709</v>
+        <v>6.96102384284125</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>208.7009504870927</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>295.6866236135195</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.176755984801957</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.961023842841709</v>
+        <v>0.7842678580397546</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.21575988425224</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.8562017022595</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.176755984801957</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.961023842842198</v>
+        <v>0.7842678580397546</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>259.437014895048</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>295.6866236135201</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>6.176755984801957</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.961023842842198</v>
+        <v>0.7842678580397546</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8054867063952</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.0024841834868</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9967164759801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>276.8088703079375</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.000145980855</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0666547191294</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0344684738949</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.8320120974078</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.61285668964589</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.9199492577997</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>72.51836979787274</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>316.1144965239717</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.2844611959387</v>
+        <v>402.634126902516</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>38.07932336689362</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>105.3857889854425</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>344.9990498782176</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.0049022594324</v>
       </c>
       <c r="D16" t="n">
-        <v>144.373554179017</v>
+        <v>144.3735541790169</v>
       </c>
       <c r="E16" t="n">
-        <v>142.1920438073738</v>
+        <v>142.1920438073737</v>
       </c>
       <c r="F16" t="n">
-        <v>141.1791291837359</v>
+        <v>141.1791291837358</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>161.7925496346994</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.5900932582124</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>92.37093785045042</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>103.7640169245078</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>282.2810794973956</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.3427345128994</v>
+        <v>42.62934793200645</v>
       </c>
     </row>
     <row r="17">
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>76.92044039595078</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>76.92044039595595</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>76.92044039595466</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>76.92044039595024</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>101.1307386614901</v>
+        <v>101.1307386614918</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.001865257421741e-12</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1123541.448107295</v>
+        <v>1123541.448107296</v>
       </c>
     </row>
     <row r="8">
@@ -26317,7 +26317,7 @@
         <v>327710.5354868153</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
         <v>271933.4713240059</v>
@@ -26326,34 +26326,34 @@
         <v>295661.6792180066</v>
       </c>
       <c r="G2" t="n">
-        <v>325967.561123506</v>
+        <v>325967.5611235062</v>
       </c>
       <c r="H2" t="n">
-        <v>325967.5611235062</v>
+        <v>325967.5611235061</v>
       </c>
       <c r="I2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="J2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="K2" t="n">
-        <v>327445.8528545634</v>
+        <v>327445.8528545635</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="M2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
     </row>
     <row r="3">
@@ -26375,16 +26375,16 @@
         <v>1113583.476290656</v>
       </c>
       <c r="F3" t="n">
-        <v>51466.24520136663</v>
+        <v>51466.24520136697</v>
       </c>
       <c r="G3" t="n">
-        <v>34499.93483792253</v>
+        <v>34499.93483792245</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5270.7587174121</v>
+        <v>5270.758717411858</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>3938.434948795277</v>
       </c>
       <c r="L3" t="n">
-        <v>37893.46990927887</v>
+        <v>37893.46990927883</v>
       </c>
       <c r="M3" t="n">
         <v>201908.4520495692</v>
       </c>
       <c r="N3" t="n">
-        <v>41093.32023625437</v>
+        <v>41093.32023625457</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>409397.0283363865</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897232</v>
+        <v>408123.0807897231</v>
       </c>
       <c r="E4" t="n">
         <v>8154.202556898435</v>
       </c>
       <c r="F4" t="n">
-        <v>28384.43479871073</v>
+        <v>28384.43479871093</v>
       </c>
       <c r="G4" t="n">
-        <v>71734.89999948893</v>
+        <v>71734.89999948902</v>
       </c>
       <c r="H4" t="n">
-        <v>71734.89999948893</v>
+        <v>71734.89999948902</v>
       </c>
       <c r="I4" t="n">
+        <v>73618.42659599816</v>
+      </c>
+      <c r="J4" t="n">
         <v>73618.42659599817</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>70978.68442999976</v>
+      </c>
+      <c r="L4" t="n">
+        <v>73618.42659599811</v>
+      </c>
+      <c r="M4" t="n">
+        <v>73618.42659599819</v>
+      </c>
+      <c r="N4" t="n">
+        <v>73618.42659599814</v>
+      </c>
+      <c r="O4" t="n">
+        <v>73618.42659599814</v>
+      </c>
+      <c r="P4" t="n">
         <v>73618.42659599816</v>
-      </c>
-      <c r="K4" t="n">
-        <v>70978.68442999982</v>
-      </c>
-      <c r="L4" t="n">
-        <v>73618.4265959982</v>
-      </c>
-      <c r="M4" t="n">
-        <v>73618.4265959982</v>
-      </c>
-      <c r="N4" t="n">
-        <v>73618.42659599817</v>
-      </c>
-      <c r="O4" t="n">
-        <v>73618.4265959982</v>
-      </c>
-      <c r="P4" t="n">
-        <v>73618.4265959982</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>73843.82689579573</v>
       </c>
       <c r="F5" t="n">
-        <v>84401.33275223468</v>
+        <v>84401.33275223474</v>
       </c>
       <c r="G5" t="n">
-        <v>88026.80152959631</v>
+        <v>88026.80152959637</v>
       </c>
       <c r="H5" t="n">
-        <v>88026.80152959631</v>
+        <v>88026.80152959637</v>
       </c>
       <c r="I5" t="n">
         <v>89231.90428574817</v>
@@ -26497,10 +26497,10 @@
         <v>89805.69685177605</v>
       </c>
       <c r="L5" t="n">
-        <v>89231.90428574815</v>
+        <v>89231.90428574817</v>
       </c>
       <c r="M5" t="n">
-        <v>89231.90428574815</v>
+        <v>89231.90428574817</v>
       </c>
       <c r="N5" t="n">
         <v>89231.90428574814</v>
@@ -26509,7 +26509,7 @@
         <v>89231.90428574814</v>
       </c>
       <c r="P5" t="n">
-        <v>89231.90428574814</v>
+        <v>89231.90428574815</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-115314.0928495712</v>
+        <v>-115318.5064274394</v>
       </c>
       <c r="C6" t="n">
-        <v>-115314.0928495713</v>
+        <v>-115318.5064274394</v>
       </c>
       <c r="D6" t="n">
-        <v>-119017.8686392565</v>
+        <v>-119017.8686392564</v>
       </c>
       <c r="E6" t="n">
-        <v>-923648.0344193446</v>
+        <v>-924001.0546482303</v>
       </c>
       <c r="F6" t="n">
-        <v>131409.6664656945</v>
+        <v>131204.9475361458</v>
       </c>
       <c r="G6" t="n">
-        <v>131705.9247564983</v>
+        <v>131690.6175888596</v>
       </c>
       <c r="H6" t="n">
-        <v>166205.8595944209</v>
+        <v>166190.5524267819</v>
       </c>
       <c r="I6" t="n">
-        <v>160295.6183465548</v>
+        <v>160295.618346555</v>
       </c>
       <c r="J6" t="n">
-        <v>165566.377063967</v>
+        <v>165566.3770639669</v>
       </c>
       <c r="K6" t="n">
-        <v>162723.0366239922</v>
+        <v>162716.9687796727</v>
       </c>
       <c r="L6" t="n">
         <v>127672.9071546881</v>
       </c>
       <c r="M6" t="n">
-        <v>-36342.07498560236</v>
+        <v>-36342.07498560233</v>
       </c>
       <c r="N6" t="n">
-        <v>124473.0568277126</v>
+        <v>124473.0568277125</v>
       </c>
       <c r="O6" t="n">
-        <v>165566.3770639669</v>
+        <v>165566.377063967</v>
       </c>
       <c r="P6" t="n">
-        <v>165566.377063967</v>
+        <v>165566.3770639671</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="G2" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H2" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I2" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="J2" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="K2" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="M2" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="N2" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="O2" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="P2" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="3">
@@ -26799,13 +26799,13 @@
         <v>825.5162655867921</v>
       </c>
       <c r="F4" t="n">
-        <v>993.294094230651</v>
+        <v>993.2940942306519</v>
       </c>
       <c r="G4" t="n">
-        <v>993.294094230651</v>
+        <v>993.2940942306519</v>
       </c>
       <c r="H4" t="n">
-        <v>993.294094230651</v>
+        <v>993.2940942306519</v>
       </c>
       <c r="I4" t="n">
         <v>1013.114863246306</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="G2" t="n">
-        <v>43.12491854740315</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>810.213528071657</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7778286438589</v>
+        <v>167.7778286438598</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.8207690156554</v>
+        <v>19.82076901565449</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>810.2135280716569</v>
+        <v>810.213528071657</v>
       </c>
       <c r="N4" t="n">
-        <v>167.7778286438587</v>
+        <v>167.7778286438595</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="L2" t="n">
-        <v>43.12491854740315</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>810.213528071657</v>
       </c>
       <c r="N4" t="n">
-        <v>167.7778286438589</v>
+        <v>167.7778286438598</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>134.6010260184174</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>202.4174641246258</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>132.1423280495037</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9629232838465</v>
+        <v>238.2163319575887</v>
       </c>
       <c r="X9" t="n">
-        <v>190.4702476883424</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.3799582621693</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
-        <v>217.1883789600571</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>271.220260821456</v>
+        <v>275.7657878683665</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="C14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="D14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="E14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="F14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="G14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="H14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="I14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="T14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="U14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="V14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="W14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="X14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="C16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="D16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="E16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="F16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="G16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="H16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="I16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="J16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="K16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="L16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="M16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="N16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="O16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="P16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="R16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="S16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="T16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="U16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="V16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="W16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="X16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.241918839195376</v>
+        <v>4.241918839195478</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I17" t="n">
         <v>42.32124220608898</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="J19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="K19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="L19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="M19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="N19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="O19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659906</v>
       </c>
       <c r="P19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="R19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="S19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I20" t="n">
         <v>42.32124220608898</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="J22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="K22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="L22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="M22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="N22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="O22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="P22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.36683738659885</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="R22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="S22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I23" t="n">
         <v>42.32124220608898</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="J25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="K25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="L25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="M25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="N25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="O25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="P25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="R25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="S25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I26" t="n">
         <v>42.32124220608898</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="J28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="K28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="L28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="M28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="N28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="O28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="P28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="R28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="S28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.36683738659853</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="C29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="D29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="E29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="F29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="G29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="H29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="I29" t="n">
         <v>42.32124220608898</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="T29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="U29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="V29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="W29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="X29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="Y29" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="C31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="D31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="E31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="F31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="G31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="H31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="I31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="J31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="K31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="L31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="M31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="N31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="O31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="P31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="R31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="S31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="T31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="U31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="V31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="W31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="X31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.12491854740313</v>
+        <v>43.12491854740306</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I32" t="n">
-        <v>42.32124220608898</v>
+        <v>42.32124220608893</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="C34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="D34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="E34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="F34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="G34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="H34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="I34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="J34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="K34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="L34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="M34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="N34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="O34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="P34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="R34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="S34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="T34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="U34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="V34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="W34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="X34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.36683738659857</v>
+        <v>47.36683738659854</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="C35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="D35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="E35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="F35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="G35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="H35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="I35" t="n">
         <v>42.32124220608898</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="T35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="U35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="V35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="W35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="X35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="C37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="D37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="E37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="F37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="G37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="H37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="I37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="J37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="K37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="L37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="M37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="N37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="O37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="P37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="R37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="S37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="T37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="U37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="V37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="W37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="X37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659856</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I38" t="n">
         <v>42.32124220608898</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="J40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="K40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="L40" t="n">
-        <v>47.36683738659804</v>
+        <v>47.36683738659866</v>
       </c>
       <c r="M40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="N40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="O40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="P40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="R40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="S40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I41" t="n">
-        <v>42.32124220608901</v>
+        <v>42.32124220608898</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="J43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="K43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="L43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="M43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="N43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="O43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="P43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="R43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="S43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I44" t="n">
-        <v>42.32124220608901</v>
+        <v>42.32124220608898</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="C46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="D46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="E46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="F46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="G46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="H46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="I46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="J46" t="n">
-        <v>47.36683738659825</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="L46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659866</v>
       </c>
       <c r="M46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="N46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="O46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="P46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="R46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="S46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="T46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="U46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="V46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="W46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="X46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.36683738659859</v>
+        <v>47.36683738659855</v>
       </c>
     </row>
   </sheetData>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.36170539820548</v>
+        <v>4.361705398205481</v>
       </c>
       <c r="H32" t="n">
-        <v>44.66931540937188</v>
+        <v>44.6693154093719</v>
       </c>
       <c r="I32" t="n">
-        <v>168.1546473643169</v>
+        <v>168.154647364317</v>
       </c>
       <c r="J32" t="n">
-        <v>370.1942935409427</v>
+        <v>370.1942935409428</v>
       </c>
       <c r="K32" t="n">
-        <v>554.8252830469808</v>
+        <v>554.8252830469809</v>
       </c>
       <c r="L32" t="n">
-        <v>688.3098246273119</v>
+        <v>688.3098246273121</v>
       </c>
       <c r="M32" t="n">
-        <v>765.8773030026485</v>
+        <v>765.8773030026488</v>
       </c>
       <c r="N32" t="n">
-        <v>778.2699984653</v>
+        <v>778.2699984653001</v>
       </c>
       <c r="O32" t="n">
-        <v>734.8982904118942</v>
+        <v>734.8982904118943</v>
       </c>
       <c r="P32" t="n">
-        <v>627.2186883936963</v>
+        <v>627.2186883936964</v>
       </c>
       <c r="Q32" t="n">
-        <v>471.0151138204624</v>
+        <v>471.0151138204625</v>
       </c>
       <c r="R32" t="n">
-        <v>273.9859767200252</v>
+        <v>273.9859767200253</v>
       </c>
       <c r="S32" t="n">
-        <v>99.39236176160748</v>
+        <v>99.3923617616075</v>
       </c>
       <c r="T32" t="n">
         <v>19.0933653806445</v>
@@ -33491,34 +33491,34 @@
         <v>2.333718128860604</v>
       </c>
       <c r="H33" t="n">
-        <v>22.53880403399583</v>
+        <v>22.53880403399584</v>
       </c>
       <c r="I33" t="n">
-        <v>80.34950575243747</v>
+        <v>80.34950575243748</v>
       </c>
       <c r="J33" t="n">
-        <v>220.4851851481854</v>
+        <v>220.4851851481855</v>
       </c>
       <c r="K33" t="n">
-        <v>376.8442997818458</v>
+        <v>376.8442997818459</v>
       </c>
       <c r="L33" t="n">
-        <v>506.7136665317728</v>
+        <v>506.7136665317729</v>
       </c>
       <c r="M33" t="n">
-        <v>591.3109487029695</v>
+        <v>591.3109487029697</v>
       </c>
       <c r="N33" t="n">
-        <v>606.9611900144954</v>
+        <v>606.9611900144955</v>
       </c>
       <c r="O33" t="n">
-        <v>555.250909369742</v>
+        <v>555.2509093697421</v>
       </c>
       <c r="P33" t="n">
-        <v>445.637806554092</v>
+        <v>445.6378065540921</v>
       </c>
       <c r="Q33" t="n">
-        <v>297.8970720278904</v>
+        <v>297.8970720278905</v>
       </c>
       <c r="R33" t="n">
         <v>144.8952361059242</v>
@@ -33527,7 +33527,7 @@
         <v>43.34779068300286</v>
       </c>
       <c r="T33" t="n">
-        <v>9.406521756240764</v>
+        <v>9.406521756240766</v>
       </c>
       <c r="U33" t="n">
         <v>0.1535340874250398</v>
@@ -33570,43 +33570,43 @@
         <v>1.956510884563894</v>
       </c>
       <c r="H34" t="n">
-        <v>17.39516041003172</v>
+        <v>17.39516041003173</v>
       </c>
       <c r="I34" t="n">
-        <v>58.83761823761239</v>
+        <v>58.8376182376124</v>
       </c>
       <c r="J34" t="n">
         <v>138.3253195386673</v>
       </c>
       <c r="K34" t="n">
-        <v>227.3109918611505</v>
+        <v>227.3109918611506</v>
       </c>
       <c r="L34" t="n">
-        <v>290.8798091468902</v>
+        <v>290.8798091468903</v>
       </c>
       <c r="M34" t="n">
-        <v>306.6919743866838</v>
+        <v>306.6919743866839</v>
       </c>
       <c r="N34" t="n">
-        <v>299.3995247260368</v>
+        <v>299.3995247260369</v>
       </c>
       <c r="O34" t="n">
-        <v>276.543920301813</v>
+        <v>276.5439203018131</v>
       </c>
       <c r="P34" t="n">
-        <v>236.6310982567094</v>
+        <v>236.6310982567095</v>
       </c>
       <c r="Q34" t="n">
         <v>163.8311068883457</v>
       </c>
       <c r="R34" t="n">
-        <v>87.97184395502742</v>
+        <v>87.97184395502744</v>
       </c>
       <c r="S34" t="n">
         <v>34.09664877917258</v>
       </c>
       <c r="T34" t="n">
-        <v>8.359637415863908</v>
+        <v>8.35963741586391</v>
       </c>
       <c r="U34" t="n">
         <v>0.1067187755216671</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.361705398205479</v>
+        <v>4.36170539820548</v>
       </c>
       <c r="H41" t="n">
         <v>44.66931540937188</v>
@@ -34129,40 +34129,40 @@
         <v>168.1546473643169</v>
       </c>
       <c r="J41" t="n">
-        <v>370.1942935409426</v>
+        <v>370.1942935409427</v>
       </c>
       <c r="K41" t="n">
-        <v>554.8252830469806</v>
+        <v>554.8252830469808</v>
       </c>
       <c r="L41" t="n">
-        <v>688.3098246273117</v>
+        <v>688.3098246273119</v>
       </c>
       <c r="M41" t="n">
-        <v>765.8773030026484</v>
+        <v>765.8773030026485</v>
       </c>
       <c r="N41" t="n">
-        <v>778.2699984652998</v>
+        <v>778.2699984653</v>
       </c>
       <c r="O41" t="n">
-        <v>734.898290411894</v>
+        <v>734.8982904118942</v>
       </c>
       <c r="P41" t="n">
-        <v>627.2186883936962</v>
+        <v>627.2186883936963</v>
       </c>
       <c r="Q41" t="n">
-        <v>471.0151138204623</v>
+        <v>471.0151138204624</v>
       </c>
       <c r="R41" t="n">
         <v>273.9859767200252</v>
       </c>
       <c r="S41" t="n">
-        <v>99.39236176160746</v>
+        <v>99.39236176160748</v>
       </c>
       <c r="T41" t="n">
         <v>19.0933653806445</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3489364318564382</v>
+        <v>0.3489364318564384</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.333718128860603</v>
+        <v>2.333718128860604</v>
       </c>
       <c r="H42" t="n">
         <v>22.53880403399583</v>
       </c>
       <c r="I42" t="n">
-        <v>80.34950575243745</v>
+        <v>80.34950575243747</v>
       </c>
       <c r="J42" t="n">
         <v>220.4851851481854</v>
@@ -34214,19 +34214,19 @@
         <v>376.8442997818458</v>
       </c>
       <c r="L42" t="n">
-        <v>506.7136665317727</v>
+        <v>506.7136665317728</v>
       </c>
       <c r="M42" t="n">
-        <v>591.3109487029694</v>
+        <v>591.3109487029695</v>
       </c>
       <c r="N42" t="n">
-        <v>606.9611900144953</v>
+        <v>606.9611900144954</v>
       </c>
       <c r="O42" t="n">
-        <v>555.2509093697419</v>
+        <v>555.250909369742</v>
       </c>
       <c r="P42" t="n">
-        <v>445.6378065540919</v>
+        <v>445.637806554092</v>
       </c>
       <c r="Q42" t="n">
         <v>297.8970720278904</v>
@@ -34235,13 +34235,13 @@
         <v>144.8952361059242</v>
       </c>
       <c r="S42" t="n">
-        <v>43.34779068300284</v>
+        <v>43.34779068300286</v>
       </c>
       <c r="T42" t="n">
-        <v>9.406521756240762</v>
+        <v>9.406521756240764</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1535340874250397</v>
+        <v>0.1535340874250398</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.956510884563893</v>
+        <v>1.956510884563894</v>
       </c>
       <c r="H43" t="n">
         <v>17.39516041003172</v>
       </c>
       <c r="I43" t="n">
-        <v>58.83761823761238</v>
+        <v>58.83761823761239</v>
       </c>
       <c r="J43" t="n">
         <v>138.3253195386673</v>
@@ -34296,7 +34296,7 @@
         <v>290.8798091468902</v>
       </c>
       <c r="M43" t="n">
-        <v>306.6919743866837</v>
+        <v>306.6919743866838</v>
       </c>
       <c r="N43" t="n">
         <v>299.3995247260368</v>
@@ -34311,16 +34311,16 @@
         <v>163.8311068883457</v>
       </c>
       <c r="R43" t="n">
-        <v>87.97184395502741</v>
+        <v>87.97184395502742</v>
       </c>
       <c r="S43" t="n">
-        <v>34.09664877917257</v>
+        <v>34.09664877917258</v>
       </c>
       <c r="T43" t="n">
-        <v>8.359637415863906</v>
+        <v>8.359637415863908</v>
       </c>
       <c r="U43" t="n">
-        <v>0.106718775521667</v>
+        <v>0.1067187755216671</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.361705398205479</v>
+        <v>4.36170539820548</v>
       </c>
       <c r="H44" t="n">
         <v>44.66931540937188</v>
@@ -34366,40 +34366,40 @@
         <v>168.1546473643169</v>
       </c>
       <c r="J44" t="n">
-        <v>370.1942935409426</v>
+        <v>370.1942935409427</v>
       </c>
       <c r="K44" t="n">
-        <v>554.8252830469806</v>
+        <v>554.8252830469808</v>
       </c>
       <c r="L44" t="n">
-        <v>688.3098246273117</v>
+        <v>688.3098246273119</v>
       </c>
       <c r="M44" t="n">
-        <v>765.8773030026484</v>
+        <v>765.8773030026485</v>
       </c>
       <c r="N44" t="n">
-        <v>778.2699984652998</v>
+        <v>778.2699984653</v>
       </c>
       <c r="O44" t="n">
-        <v>734.898290411894</v>
+        <v>734.8982904118942</v>
       </c>
       <c r="P44" t="n">
-        <v>627.2186883936962</v>
+        <v>627.2186883936963</v>
       </c>
       <c r="Q44" t="n">
-        <v>471.0151138204623</v>
+        <v>471.0151138204624</v>
       </c>
       <c r="R44" t="n">
         <v>273.9859767200252</v>
       </c>
       <c r="S44" t="n">
-        <v>99.39236176160746</v>
+        <v>99.39236176160748</v>
       </c>
       <c r="T44" t="n">
         <v>19.0933653806445</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3489364318564382</v>
+        <v>0.3489364318564384</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.333718128860603</v>
+        <v>2.333718128860604</v>
       </c>
       <c r="H45" t="n">
         <v>22.53880403399583</v>
       </c>
       <c r="I45" t="n">
-        <v>80.34950575243745</v>
+        <v>80.34950575243747</v>
       </c>
       <c r="J45" t="n">
         <v>220.4851851481854</v>
@@ -34451,19 +34451,19 @@
         <v>376.8442997818458</v>
       </c>
       <c r="L45" t="n">
-        <v>506.7136665317727</v>
+        <v>506.7136665317728</v>
       </c>
       <c r="M45" t="n">
-        <v>591.3109487029694</v>
+        <v>591.3109487029695</v>
       </c>
       <c r="N45" t="n">
-        <v>606.9611900144953</v>
+        <v>606.9611900144954</v>
       </c>
       <c r="O45" t="n">
-        <v>555.2509093697419</v>
+        <v>555.250909369742</v>
       </c>
       <c r="P45" t="n">
-        <v>445.6378065540919</v>
+        <v>445.637806554092</v>
       </c>
       <c r="Q45" t="n">
         <v>297.8970720278904</v>
@@ -34472,13 +34472,13 @@
         <v>144.8952361059242</v>
       </c>
       <c r="S45" t="n">
-        <v>43.34779068300284</v>
+        <v>43.34779068300286</v>
       </c>
       <c r="T45" t="n">
-        <v>9.406521756240762</v>
+        <v>9.406521756240764</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1535340874250397</v>
+        <v>0.1535340874250398</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.956510884563893</v>
+        <v>1.956510884563894</v>
       </c>
       <c r="H46" t="n">
         <v>17.39516041003172</v>
       </c>
       <c r="I46" t="n">
-        <v>58.83761823761238</v>
+        <v>58.83761823761239</v>
       </c>
       <c r="J46" t="n">
         <v>138.3253195386673</v>
@@ -34533,7 +34533,7 @@
         <v>290.8798091468902</v>
       </c>
       <c r="M46" t="n">
-        <v>306.6919743866837</v>
+        <v>306.6919743866838</v>
       </c>
       <c r="N46" t="n">
         <v>299.3995247260368</v>
@@ -34548,16 +34548,16 @@
         <v>163.8311068883457</v>
       </c>
       <c r="R46" t="n">
-        <v>87.97184395502741</v>
+        <v>87.97184395502742</v>
       </c>
       <c r="S46" t="n">
-        <v>34.09664877917257</v>
+        <v>34.09664877917258</v>
       </c>
       <c r="T46" t="n">
-        <v>8.359637415863906</v>
+        <v>8.359637415863908</v>
       </c>
       <c r="U46" t="n">
-        <v>0.106718775521667</v>
+        <v>0.1067187755216671</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>15.30273751513505</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M10" t="n">
         <v>15.30273751513505</v>
@@ -35343,7 +35343,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.2450041863302</v>
+        <v>189.1483890142564</v>
       </c>
       <c r="K14" t="n">
         <v>334.7354320020002</v>
       </c>
       <c r="L14" t="n">
-        <v>452.5434096573246</v>
+        <v>870.2046242077751</v>
       </c>
       <c r="M14" t="n">
         <v>535.5310697753758</v>
       </c>
       <c r="N14" t="n">
-        <v>548.856934868709</v>
+        <v>583.2131420663659</v>
       </c>
       <c r="O14" t="n">
         <v>504.8000789902075</v>
       </c>
       <c r="P14" t="n">
-        <v>613.1900793414737</v>
+        <v>395.9856926384268</v>
       </c>
       <c r="Q14" t="n">
         <v>461.0244146059176</v>
       </c>
       <c r="R14" t="n">
-        <v>124.1168587788756</v>
+        <v>58.40043890589311</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>311.6633991397617</v>
       </c>
       <c r="Q15" t="n">
-        <v>157.9152979418689</v>
+        <v>164.0920539266706</v>
       </c>
       <c r="R15" t="n">
-        <v>6.176755984801955</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.20805826118989</v>
+        <v>49.20805826118999</v>
       </c>
       <c r="K16" t="n">
-        <v>209.2834188744631</v>
+        <v>209.2834188744632</v>
       </c>
       <c r="L16" t="n">
         <v>322.7117532464018</v>
       </c>
       <c r="M16" t="n">
-        <v>350.5177701877197</v>
+        <v>350.5177701877199</v>
       </c>
       <c r="N16" t="n">
-        <v>347.7736159444608</v>
+        <v>347.7736159444609</v>
       </c>
       <c r="O16" t="n">
-        <v>305.3709670550481</v>
+        <v>305.3709670550482</v>
       </c>
       <c r="P16" t="n">
-        <v>238.1515763607983</v>
+        <v>238.1515763607984</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.91098247584671</v>
+        <v>81.91098247584681</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>452.5434096573246</v>
       </c>
       <c r="M17" t="n">
-        <v>535.5310697753758</v>
+        <v>649.9666857485679</v>
       </c>
       <c r="N17" t="n">
         <v>548.856934868709</v>
       </c>
       <c r="O17" t="n">
-        <v>504.8000789902075</v>
+        <v>885.6002602529528</v>
       </c>
       <c r="P17" t="n">
-        <v>613.1900793414737</v>
+        <v>395.9856926384268</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.0244146059176</v>
+        <v>248.7094239460129</v>
       </c>
       <c r="R17" t="n">
-        <v>124.1168587788756</v>
+        <v>58.40043890589311</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>412.6546649252975</v>
       </c>
       <c r="P18" t="n">
-        <v>311.6633991397617</v>
+        <v>317.8401551245632</v>
       </c>
       <c r="Q18" t="n">
         <v>157.9152979418689</v>
       </c>
       <c r="R18" t="n">
-        <v>6.176755984801955</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.33297680859305</v>
+        <v>92.33297680859306</v>
       </c>
       <c r="K19" t="n">
         <v>252.4083374218662</v>
       </c>
       <c r="L19" t="n">
-        <v>365.8366717938049</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M19" t="n">
         <v>393.6426887351229</v>
       </c>
       <c r="N19" t="n">
-        <v>390.8985344918639</v>
+        <v>390.898534491864</v>
       </c>
       <c r="O19" t="n">
-        <v>348.4958856024513</v>
+        <v>348.4958856024518</v>
       </c>
       <c r="P19" t="n">
         <v>281.2764949082014</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>358.2450041863302</v>
+        <v>189.1483890142564</v>
       </c>
       <c r="K20" t="n">
-        <v>334.7354320020002</v>
+        <v>618.267663147266</v>
       </c>
       <c r="L20" t="n">
         <v>452.5434096573246</v>
@@ -36133,16 +36133,16 @@
         <v>548.856934868709</v>
       </c>
       <c r="O20" t="n">
-        <v>504.8000789902075</v>
+        <v>885.6002602529528</v>
       </c>
       <c r="P20" t="n">
-        <v>717.7844008099094</v>
+        <v>395.9856926384268</v>
       </c>
       <c r="Q20" t="n">
-        <v>356.4300931374818</v>
+        <v>248.7094239460129</v>
       </c>
       <c r="R20" t="n">
-        <v>124.1168587788756</v>
+        <v>58.40043890589311</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>449.1769147809512</v>
       </c>
       <c r="N21" t="n">
-        <v>481.7962339159641</v>
+        <v>475.6194779311621</v>
       </c>
       <c r="O21" t="n">
         <v>412.6546649252975</v>
@@ -36221,7 +36221,7 @@
         <v>157.9152979418689</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33297680859305</v>
+        <v>92.33297680859306</v>
       </c>
       <c r="K22" t="n">
         <v>252.4083374218662</v>
       </c>
       <c r="L22" t="n">
-        <v>365.8366717938049</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M22" t="n">
         <v>393.6426887351229</v>
       </c>
       <c r="N22" t="n">
-        <v>390.8985344918639</v>
+        <v>390.898534491864</v>
       </c>
       <c r="O22" t="n">
         <v>348.4958856024513</v>
       </c>
       <c r="P22" t="n">
-        <v>281.2764949082014</v>
+        <v>281.2764949082015</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.0359010232502</v>
+        <v>125.0359010232499</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>332.1329196283684</v>
+        <v>189.1483890142564</v>
       </c>
       <c r="K23" t="n">
         <v>334.7354320020002</v>
@@ -36364,19 +36364,19 @@
         <v>452.5434096573246</v>
       </c>
       <c r="M23" t="n">
-        <v>535.5310697753758</v>
+        <v>831.8291179581294</v>
       </c>
       <c r="N23" t="n">
         <v>548.856934868709</v>
       </c>
       <c r="O23" t="n">
-        <v>504.8000789902075</v>
+        <v>885.6002602529528</v>
       </c>
       <c r="P23" t="n">
-        <v>717.7844008099094</v>
+        <v>395.9856926384268</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.0244146059176</v>
+        <v>248.7094239460129</v>
       </c>
       <c r="R23" t="n">
         <v>124.1168587788756</v>
@@ -36440,7 +36440,7 @@
         <v>239.0028608074869</v>
       </c>
       <c r="L24" t="n">
-        <v>368.1592867518986</v>
+        <v>374.3360427367004</v>
       </c>
       <c r="M24" t="n">
         <v>449.1769147809512</v>
@@ -36452,7 +36452,7 @@
         <v>412.6546649252975</v>
       </c>
       <c r="P24" t="n">
-        <v>317.8401551245632</v>
+        <v>311.6633991397617</v>
       </c>
       <c r="Q24" t="n">
         <v>157.9152979418689</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33297680859305</v>
+        <v>92.33297680859306</v>
       </c>
       <c r="K25" t="n">
         <v>252.4083374218662</v>
       </c>
       <c r="L25" t="n">
-        <v>365.8366717938049</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M25" t="n">
         <v>393.6426887351229</v>
       </c>
       <c r="N25" t="n">
-        <v>390.8985344918639</v>
+        <v>390.898534491864</v>
       </c>
       <c r="O25" t="n">
         <v>348.4958856024513</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>189.1483890142564</v>
+        <v>358.2450041863302</v>
       </c>
       <c r="K26" t="n">
-        <v>658.8808445731649</v>
+        <v>334.7354320020002</v>
       </c>
       <c r="L26" t="n">
         <v>452.5434096573246</v>
       </c>
       <c r="M26" t="n">
-        <v>535.5310697753758</v>
+        <v>985.0446032682083</v>
       </c>
       <c r="N26" t="n">
         <v>548.856934868709</v>
@@ -36610,10 +36610,10 @@
         <v>504.8000789902075</v>
       </c>
       <c r="P26" t="n">
-        <v>717.7844008099094</v>
+        <v>520.1901932920018</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.5799525218472</v>
+        <v>248.7094239460129</v>
       </c>
       <c r="R26" t="n">
         <v>58.40043890589311</v>
@@ -36677,13 +36677,13 @@
         <v>239.0028608074869</v>
       </c>
       <c r="L27" t="n">
-        <v>368.1592867518986</v>
+        <v>374.3360427367004</v>
       </c>
       <c r="M27" t="n">
         <v>449.1769147809512</v>
       </c>
       <c r="N27" t="n">
-        <v>481.7962339159639</v>
+        <v>475.6194779311621</v>
       </c>
       <c r="O27" t="n">
         <v>412.6546649252975</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.33297680859305</v>
+        <v>92.33297680859306</v>
       </c>
       <c r="K28" t="n">
         <v>252.4083374218662</v>
       </c>
       <c r="L28" t="n">
-        <v>365.8366717938049</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M28" t="n">
         <v>393.6426887351229</v>
       </c>
       <c r="N28" t="n">
-        <v>390.8985344918639</v>
+        <v>390.898534491864</v>
       </c>
       <c r="O28" t="n">
         <v>348.4958856024513</v>
@@ -36832,7 +36832,7 @@
         <v>189.1483890142564</v>
       </c>
       <c r="K29" t="n">
-        <v>334.7354320020002</v>
+        <v>476.314214803431</v>
       </c>
       <c r="L29" t="n">
         <v>452.5434096573246</v>
@@ -36841,7 +36841,7 @@
         <v>985.0446032682083</v>
       </c>
       <c r="N29" t="n">
-        <v>902.7507083300443</v>
+        <v>548.856934868709</v>
       </c>
       <c r="O29" t="n">
         <v>504.8000789902075</v>
@@ -36850,7 +36850,7 @@
         <v>395.9856926384268</v>
       </c>
       <c r="Q29" t="n">
-        <v>248.7094239460129</v>
+        <v>461.0244146059176</v>
       </c>
       <c r="R29" t="n">
         <v>58.40043890589311</v>
@@ -36917,10 +36917,10 @@
         <v>368.1592867518986</v>
       </c>
       <c r="M30" t="n">
-        <v>449.1769147809512</v>
+        <v>455.3536707657535</v>
       </c>
       <c r="N30" t="n">
-        <v>481.7962339159643</v>
+        <v>475.6194779311621</v>
       </c>
       <c r="O30" t="n">
         <v>412.6546649252975</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.09105796939764</v>
+        <v>88.09105796939758</v>
       </c>
       <c r="K31" t="n">
         <v>248.1664185826708</v>
@@ -37005,10 +37005,10 @@
         <v>344.2539667632558</v>
       </c>
       <c r="P31" t="n">
-        <v>277.0345760690061</v>
+        <v>277.0345760690059</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.7939821840545</v>
+        <v>120.7939821840544</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>358.2450041863302</v>
+        <v>189.1483890142565</v>
       </c>
       <c r="K32" t="n">
-        <v>334.7354320020002</v>
+        <v>658.8808445731651</v>
       </c>
       <c r="L32" t="n">
-        <v>452.5434096573246</v>
+        <v>593.181235871753</v>
       </c>
       <c r="M32" t="n">
-        <v>535.5310697753758</v>
+        <v>535.5310697753761</v>
       </c>
       <c r="N32" t="n">
-        <v>548.856934868709</v>
+        <v>548.8569348687092</v>
       </c>
       <c r="O32" t="n">
-        <v>504.8000789902075</v>
+        <v>504.8000789902076</v>
       </c>
       <c r="P32" t="n">
-        <v>691.6723162519472</v>
+        <v>395.9856926384269</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.0244146059176</v>
+        <v>461.0244146059177</v>
       </c>
       <c r="R32" t="n">
         <v>124.1168587788756</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.64755848151873</v>
+        <v>93.64755848151876</v>
       </c>
       <c r="K33" t="n">
         <v>239.0028608074869</v>
       </c>
       <c r="L33" t="n">
-        <v>368.1592867518986</v>
+        <v>368.1592867518987</v>
       </c>
       <c r="M33" t="n">
-        <v>449.1769147809512</v>
+        <v>449.1769147809513</v>
       </c>
       <c r="N33" t="n">
-        <v>475.6194779311621</v>
+        <v>475.6194779311622</v>
       </c>
       <c r="O33" t="n">
-        <v>412.6546649252975</v>
+        <v>412.6546649252977</v>
       </c>
       <c r="P33" t="n">
-        <v>311.6633991397617</v>
+        <v>311.6633991397619</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.092053926671</v>
+        <v>157.915297941869</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>252.4083374218663</v>
       </c>
       <c r="L34" t="n">
-        <v>365.8366717938049</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M34" t="n">
-        <v>393.6426887351229</v>
+        <v>393.642688735123</v>
       </c>
       <c r="N34" t="n">
-        <v>390.8985344918639</v>
+        <v>390.898534491864</v>
       </c>
       <c r="O34" t="n">
         <v>348.4958856024513</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358.2450041863302</v>
+        <v>189.1483890142564</v>
       </c>
       <c r="K35" t="n">
         <v>334.7354320020002</v>
       </c>
       <c r="L35" t="n">
-        <v>452.5434096573246</v>
+        <v>870.2046242077751</v>
       </c>
       <c r="M35" t="n">
         <v>535.5310697753758</v>
@@ -37318,7 +37318,7 @@
         <v>548.856934868709</v>
       </c>
       <c r="O35" t="n">
-        <v>800.4867026037274</v>
+        <v>551.9221032253519</v>
       </c>
       <c r="P35" t="n">
         <v>395.9856926384268</v>
@@ -37406,7 +37406,7 @@
         <v>157.9152979418689</v>
       </c>
       <c r="R36" t="n">
-        <v>6.176755984801955</v>
+        <v>6.176755984801495</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.3329768085931</v>
+        <v>92.33297680859307</v>
       </c>
       <c r="K37" t="n">
-        <v>252.4083374218663</v>
+        <v>252.4083374218662</v>
       </c>
       <c r="L37" t="n">
         <v>365.836671793805</v>
       </c>
       <c r="M37" t="n">
-        <v>393.642688735123</v>
+        <v>393.6426887351229</v>
       </c>
       <c r="N37" t="n">
         <v>390.898534491864</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>189.1483890142564</v>
+        <v>358.2450041863302</v>
       </c>
       <c r="K38" t="n">
-        <v>543.4363824890929</v>
+        <v>334.7354320020002</v>
       </c>
       <c r="L38" t="n">
         <v>452.5434096573246</v>
@@ -37555,16 +37555,16 @@
         <v>548.856934868709</v>
       </c>
       <c r="O38" t="n">
-        <v>504.8000789902075</v>
+        <v>800.4867026037269</v>
       </c>
       <c r="P38" t="n">
-        <v>717.7844008099094</v>
+        <v>395.9856926384268</v>
       </c>
       <c r="Q38" t="n">
         <v>461.0244146059176</v>
       </c>
       <c r="R38" t="n">
-        <v>58.40043890589311</v>
+        <v>124.1168587788756</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>239.0028608074869</v>
       </c>
       <c r="L39" t="n">
-        <v>368.1592867518986</v>
+        <v>374.3360427367006</v>
       </c>
       <c r="M39" t="n">
         <v>449.1769147809512</v>
@@ -37643,7 +37643,7 @@
         <v>157.9152979418689</v>
       </c>
       <c r="R39" t="n">
-        <v>6.176755984801955</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.3329768085931</v>
+        <v>92.33297680859306</v>
       </c>
       <c r="K40" t="n">
-        <v>252.4083374218663</v>
+        <v>252.4083374218662</v>
       </c>
       <c r="L40" t="n">
-        <v>365.8366717938044</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M40" t="n">
-        <v>393.642688735123</v>
+        <v>393.6426887351229</v>
       </c>
       <c r="N40" t="n">
         <v>390.898534491864</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>358.2450041863301</v>
+        <v>189.1483890142564</v>
       </c>
       <c r="K41" t="n">
-        <v>658.8808445731648</v>
+        <v>334.7354320020002</v>
       </c>
       <c r="L41" t="n">
-        <v>452.5434096573245</v>
+        <v>492.7591695415769</v>
       </c>
       <c r="M41" t="n">
-        <v>535.5310697753757</v>
+        <v>535.5310697753758</v>
       </c>
       <c r="N41" t="n">
-        <v>548.8569348687088</v>
+        <v>548.856934868709</v>
       </c>
       <c r="O41" t="n">
-        <v>504.8000789902072</v>
+        <v>885.6002602529528</v>
       </c>
       <c r="P41" t="n">
-        <v>395.9856926384267</v>
+        <v>717.7844008099094</v>
       </c>
       <c r="Q41" t="n">
-        <v>432.5656256482723</v>
+        <v>248.7094239460129</v>
       </c>
       <c r="R41" t="n">
-        <v>124.1168587788755</v>
+        <v>58.40043890589311</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>93.64755848151867</v>
+        <v>93.64755848151873</v>
       </c>
       <c r="K42" t="n">
-        <v>239.0028608074868</v>
+        <v>239.0028608074869</v>
       </c>
       <c r="L42" t="n">
-        <v>368.1592867518985</v>
+        <v>374.3360427367006</v>
       </c>
       <c r="M42" t="n">
-        <v>449.1769147809511</v>
+        <v>449.1769147809512</v>
       </c>
       <c r="N42" t="n">
-        <v>475.619477931162</v>
+        <v>475.6194779311621</v>
       </c>
       <c r="O42" t="n">
-        <v>412.6546649252974</v>
+        <v>412.6546649252975</v>
       </c>
       <c r="P42" t="n">
         <v>311.6633991397617</v>
@@ -37880,7 +37880,7 @@
         <v>157.9152979418689</v>
       </c>
       <c r="R42" t="n">
-        <v>6.176755984802415</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.33297680859307</v>
+        <v>92.33297680859306</v>
       </c>
       <c r="K43" t="n">
         <v>252.4083374218662</v>
       </c>
       <c r="L43" t="n">
-        <v>365.8366717938049</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M43" t="n">
         <v>393.6426887351229</v>
       </c>
       <c r="N43" t="n">
-        <v>390.8985344918639</v>
+        <v>390.898534491864</v>
       </c>
       <c r="O43" t="n">
         <v>348.4958856024513</v>
       </c>
       <c r="P43" t="n">
-        <v>281.2764949082014</v>
+        <v>281.2764949082015</v>
       </c>
       <c r="Q43" t="n">
         <v>125.0359010232499</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.2450041863301</v>
+        <v>189.1483890142564</v>
       </c>
       <c r="K44" t="n">
-        <v>334.7354320020001</v>
+        <v>334.7354320020002</v>
       </c>
       <c r="L44" t="n">
-        <v>452.5434096573245</v>
+        <v>870.2046242077751</v>
       </c>
       <c r="M44" t="n">
-        <v>535.5310697753757</v>
+        <v>535.5310697753758</v>
       </c>
       <c r="N44" t="n">
-        <v>548.8569348687088</v>
+        <v>808.293949763757</v>
       </c>
       <c r="O44" t="n">
-        <v>504.8000789902072</v>
+        <v>504.8000789902075</v>
       </c>
       <c r="P44" t="n">
-        <v>691.6723162519468</v>
+        <v>395.9856926384268</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.0244146059175</v>
+        <v>248.7094239460129</v>
       </c>
       <c r="R44" t="n">
-        <v>124.1168587788755</v>
+        <v>124.1168587788756</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.64755848151867</v>
+        <v>93.64755848151873</v>
       </c>
       <c r="K45" t="n">
-        <v>239.0028608074868</v>
+        <v>239.0028608074869</v>
       </c>
       <c r="L45" t="n">
-        <v>368.1592867518985</v>
+        <v>368.1592867518986</v>
       </c>
       <c r="M45" t="n">
-        <v>449.1769147809511</v>
+        <v>449.1769147809512</v>
       </c>
       <c r="N45" t="n">
-        <v>475.619477931162</v>
+        <v>481.7962339159641</v>
       </c>
       <c r="O45" t="n">
-        <v>412.6546649252974</v>
+        <v>412.6546649252975</v>
       </c>
       <c r="P45" t="n">
         <v>311.6633991397617</v>
@@ -38117,7 +38117,7 @@
         <v>157.9152979418689</v>
       </c>
       <c r="R45" t="n">
-        <v>6.176755984802415</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.33297680859273</v>
+        <v>92.33297680859306</v>
       </c>
       <c r="K46" t="n">
         <v>252.4083374218662</v>
       </c>
       <c r="L46" t="n">
-        <v>365.8366717938049</v>
+        <v>365.836671793805</v>
       </c>
       <c r="M46" t="n">
         <v>393.6426887351229</v>
       </c>
       <c r="N46" t="n">
-        <v>390.8985344918639</v>
+        <v>390.898534491864</v>
       </c>
       <c r="O46" t="n">
         <v>348.4958856024513</v>
       </c>
       <c r="P46" t="n">
-        <v>281.2764949082014</v>
+        <v>281.2764949082015</v>
       </c>
       <c r="Q46" t="n">
         <v>125.0359010232499</v>
